--- a/Laporan/2024/2024Laporan Limbah.xlsx
+++ b/Laporan/2024/2024Laporan Limbah.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="13395" windowHeight="7500" tabRatio="325" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="13395" windowHeight="7500" tabRatio="325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="4" r:id="rId1"/>
     <sheet name="02" sheetId="5" r:id="rId2"/>
+    <sheet name="03" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="98">
   <si>
     <t>BERAT (kg)</t>
   </si>
@@ -282,6 +283,33 @@
   </si>
   <si>
     <t>NYLON 200D</t>
+  </si>
+  <si>
+    <t>W03-71010064-Y</t>
+  </si>
+  <si>
+    <t>PVC HITAM</t>
+  </si>
+  <si>
+    <t>M02-01938001</t>
+  </si>
+  <si>
+    <t>M14-05020003</t>
+  </si>
+  <si>
+    <t>TECHNORA</t>
+  </si>
+  <si>
+    <t>W01-04040001</t>
+  </si>
+  <si>
+    <t>0,080 UEW</t>
+  </si>
+  <si>
+    <t>M02-01050022</t>
+  </si>
+  <si>
+    <t>Tanggal : 2024.03</t>
   </si>
 </sst>
 </file>
@@ -547,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -728,76 +756,91 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,6 +1073,152 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2790825" y="12192000"/>
+          <a:ext cx="0" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="10687050"/>
+          <a:ext cx="5305425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4286250" y="8515350"/>
+          <a:ext cx="1295400" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="13525500"/>
           <a:ext cx="0" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1548,18 +1737,18 @@
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="12"/>
       <c r="L12" s="17"/>
       <c r="M12" s="12"/>
@@ -1572,14 +1761,14 @@
     </row>
     <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="12"/>
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
@@ -1592,19 +1781,19 @@
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="91"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="18" t="s">
         <v>10</v>
       </c>
@@ -1620,27 +1809,27 @@
     </row>
     <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="83" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="79" t="s">
+      <c r="I15" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="94" t="s">
+      <c r="J15" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="90" t="s">
+      <c r="K15" s="85" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="17"/>
@@ -1654,15 +1843,15 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="76"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="90"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="85"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,10 +1898,10 @@
         <v>12.74</v>
       </c>
       <c r="G18" s="12"/>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="28">
         <f>SUM(J17)</f>
         <v>47.199999999999996</v>
@@ -1805,10 +1994,10 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="28">
         <f>SUM(E17:E22)</f>
         <v>38.36</v>
@@ -1966,8 +2155,8 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
       <c r="E34" s="33"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
@@ -2019,8 +2208,8 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
       <c r="E37" s="39"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -2077,15 +2266,15 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="30"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
       <c r="J40" s="39"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -2098,9 +2287,9 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
       <c r="F41" s="30"/>
       <c r="G41" s="12"/>
       <c r="H41" s="30" t="s">
@@ -2119,19 +2308,19 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="91"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="81" t="s">
+      <c r="H42" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="81"/>
+      <c r="I42" s="84"/>
       <c r="J42" s="18" t="s">
         <v>26</v>
       </c>
@@ -2146,24 +2335,24 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="79" t="s">
+      <c r="D43" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="83" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="79" t="s">
+      <c r="H43" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="79" t="s">
+      <c r="I43" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="76" t="s">
+      <c r="J43" s="83" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="12"/>
@@ -2177,14 +2366,14 @@
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="76"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="83"/>
       <c r="F44" s="30"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="76"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="83"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="34"/>
@@ -2199,7 +2388,7 @@
       <c r="C45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="84" t="s">
+      <c r="D45" s="93" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="49">
@@ -2232,7 +2421,7 @@
       <c r="C46" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="89"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="49">
         <v>13.68</v>
       </c>
@@ -2259,7 +2448,7 @@
       <c r="C47" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="89"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="29">
         <f>19.64 + 18.92</f>
         <v>38.56</v>
@@ -2287,7 +2476,7 @@
       <c r="C48" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="89"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="29">
         <f>10.56 + 11.6</f>
         <v>22.16</v>
@@ -2317,7 +2506,7 @@
       <c r="C49" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="89"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="29">
         <v>10.220000000000001</v>
       </c>
@@ -2346,7 +2535,7 @@
       <c r="C50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="89"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="29">
         <v>8.2799999999999994</v>
       </c>
@@ -2375,7 +2564,7 @@
       <c r="C51" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="85"/>
+      <c r="D51" s="95"/>
       <c r="E51" s="29">
         <v>1.4</v>
       </c>
@@ -2404,7 +2593,7 @@
       <c r="C52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="86" t="s">
+      <c r="D52" s="90" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="29">
@@ -2436,7 +2625,7 @@
       <c r="C53" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="87"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="29">
         <f>19.68 + 7.02 + 15.34</f>
         <v>42.04</v>
@@ -2464,17 +2653,17 @@
       <c r="C54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="87"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="29">
         <f>21.08 + 21.12 + 17.46 + 6.5</f>
         <v>66.16</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="77" t="s">
+      <c r="H54" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="78"/>
+      <c r="I54" s="77"/>
       <c r="J54" s="24">
         <f>SUM(J45:J53)</f>
         <v>158.74</v>
@@ -2494,7 +2683,7 @@
       <c r="C55" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="87"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="29">
         <f>8.86 + 5.66</f>
         <v>14.52</v>
@@ -2506,10 +2695,10 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="81" t="s">
+      <c r="M55" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="N55" s="81"/>
+      <c r="N55" s="84"/>
       <c r="O55" s="18" t="s">
         <v>48</v>
       </c>
@@ -2521,7 +2710,7 @@
       <c r="C56" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="88"/>
+      <c r="D56" s="92"/>
       <c r="E56" s="29">
         <v>12.8</v>
       </c>
@@ -2532,13 +2721,13 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="82" t="s">
+      <c r="M56" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="82" t="s">
+      <c r="N56" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="74" t="s">
+      <c r="O56" s="96" t="s">
         <v>0</v>
       </c>
       <c r="P56" s="12"/>
@@ -2549,7 +2738,7 @@
       <c r="C57" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="84" t="s">
+      <c r="D57" s="93" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="29">
@@ -2563,9 +2752,9 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="75"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="97"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="17"/>
     </row>
@@ -2574,7 +2763,7 @@
       <c r="C58" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="85"/>
+      <c r="D58" s="95"/>
       <c r="E58" s="49">
         <f>17.52 + 4.82</f>
         <v>22.34</v>
@@ -2604,7 +2793,7 @@
       <c r="C59" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="84" t="s">
+      <c r="D59" s="93" t="s">
         <v>35</v>
       </c>
       <c r="E59" s="49">
@@ -2636,7 +2825,7 @@
       <c r="C60" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="85"/>
+      <c r="D60" s="95"/>
       <c r="E60" s="49">
         <v>6.76</v>
       </c>
@@ -2665,7 +2854,7 @@
       <c r="C61" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="78" t="s">
         <v>61</v>
       </c>
       <c r="E61" s="19">
@@ -2696,7 +2885,7 @@
       <c r="C62" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="97"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="49">
         <f>7.16</f>
         <v>7.16</v>
@@ -2726,7 +2915,7 @@
       <c r="C63" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="97"/>
+      <c r="D63" s="78"/>
       <c r="E63" s="49">
         <v>4.04</v>
       </c>
@@ -2754,29 +2943,29 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="16"/>
-      <c r="C64" s="77" t="s">
+      <c r="C64" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="78"/>
+      <c r="D64" s="77"/>
       <c r="E64" s="28">
         <f>SUM(E45:E63)</f>
         <v>568.8599999999999</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="57"/>
-      <c r="H64" s="81" t="s">
+      <c r="H64" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="81"/>
+      <c r="I64" s="84"/>
       <c r="J64" s="18" t="s">
         <v>66</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="77" t="s">
+      <c r="M64" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="N64" s="78"/>
+      <c r="N64" s="77"/>
       <c r="O64" s="24">
         <f>SUM(O58:O63)</f>
         <v>85.269999999999982</v>
@@ -2791,13 +2980,13 @@
       <c r="E65" s="39"/>
       <c r="F65" s="12"/>
       <c r="G65" s="57"/>
-      <c r="H65" s="79" t="s">
+      <c r="H65" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="79" t="s">
+      <c r="I65" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="J65" s="76" t="s">
+      <c r="J65" s="83" t="s">
         <v>0</v>
       </c>
       <c r="K65" s="12"/>
@@ -2815,9 +3004,9 @@
       <c r="E66" s="39"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="76"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="83"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12" t="s">
@@ -2843,10 +3032,10 @@
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="81" t="s">
+      <c r="M67" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="N67" s="81"/>
+      <c r="N67" s="84"/>
       <c r="O67" s="18" t="s">
         <v>35</v>
       </c>
@@ -2869,13 +3058,13 @@
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="79" t="s">
+      <c r="M68" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="N68" s="79" t="s">
+      <c r="N68" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="76" t="s">
+      <c r="O68" s="83" t="s">
         <v>0</v>
       </c>
       <c r="P68" s="12"/>
@@ -2902,18 +3091,18 @@
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="76"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="83"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="17"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="16"/>
-      <c r="C70" s="81" t="s">
+      <c r="C70" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="81"/>
+      <c r="D70" s="84"/>
       <c r="E70" s="18" t="s">
         <v>25</v>
       </c>
@@ -2945,13 +3134,13 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="16"/>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="79" t="s">
+      <c r="D71" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="76" t="s">
+      <c r="E71" s="83" t="s">
         <v>0</v>
       </c>
       <c r="F71" s="12"/>
@@ -2982,9 +3171,9 @@
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="16"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="76"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="83"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="23" t="s">
@@ -3026,10 +3215,10 @@
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="77" t="s">
+      <c r="H73" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="78"/>
+      <c r="I73" s="77"/>
       <c r="J73" s="24">
         <f>SUM(J67:J72)</f>
         <v>41.76</v>
@@ -3068,10 +3257,10 @@
       <c r="J74" s="11"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="77" t="s">
+      <c r="M74" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="N74" s="78"/>
+      <c r="N74" s="77"/>
       <c r="O74" s="28">
         <f>SUM(O70:O73)</f>
         <v>44.42</v>
@@ -3174,10 +3363,10 @@
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="16"/>
-      <c r="C79" s="77" t="s">
+      <c r="C79" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="78"/>
+      <c r="D79" s="77"/>
       <c r="E79" s="24">
         <f>SUM(E73:E78)</f>
         <v>238.73</v>
@@ -3243,6 +3432,43 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="C12:E13"/>
@@ -3258,43 +3484,6 @@
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="J65:J66"/>
     <mergeCell ref="C64:D64"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="H73:I73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3306,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,18 +3648,18 @@
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="12"/>
       <c r="L12" s="17"/>
       <c r="M12" s="12"/>
@@ -3483,14 +3672,14 @@
     </row>
     <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="12"/>
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
@@ -3503,19 +3692,19 @@
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="91"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="18" t="s">
         <v>10</v>
       </c>
@@ -3531,27 +3720,27 @@
     </row>
     <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="83" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="79" t="s">
+      <c r="I15" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="94" t="s">
+      <c r="J15" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="90" t="s">
+      <c r="K15" s="85" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="17"/>
@@ -3565,15 +3754,15 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="76"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="90"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="85"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,10 +3795,10 @@
       <c r="E18" s="22"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="28">
         <f>SUM(J17)</f>
         <v>0</v>
@@ -3683,10 +3872,10 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="28">
         <f>SUM(E17:E22)</f>
         <v>0</v>
@@ -3844,8 +4033,8 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
       <c r="E34" s="33"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
@@ -3897,8 +4086,8 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
       <c r="E37" s="39"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -3955,15 +4144,15 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="30"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
       <c r="J40" s="39"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -3976,9 +4165,9 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
       <c r="F41" s="30"/>
       <c r="G41" s="12"/>
       <c r="H41" s="30" t="s">
@@ -3997,19 +4186,19 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="91"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="81" t="s">
+      <c r="H42" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="81"/>
+      <c r="I42" s="84"/>
       <c r="J42" s="18" t="s">
         <v>26</v>
       </c>
@@ -4024,24 +4213,24 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="79" t="s">
+      <c r="D43" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="83" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="79" t="s">
+      <c r="H43" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="79" t="s">
+      <c r="I43" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="76" t="s">
+      <c r="J43" s="83" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="12"/>
@@ -4055,14 +4244,14 @@
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="76"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="83"/>
       <c r="F44" s="30"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="76"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="83"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="34"/>
@@ -4077,7 +4266,7 @@
       <c r="C45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="84" t="s">
+      <c r="D45" s="93" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="67">
@@ -4109,7 +4298,7 @@
       <c r="C46" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="89"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="67">
         <f>4.12+3.18+1.76+3.62+3.2+15.46+9.54</f>
         <v>40.879999999999995</v>
@@ -4136,7 +4325,7 @@
       <c r="C47" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="89"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="68">
         <f>15.58+3.04+10.36</f>
         <v>28.98</v>
@@ -4163,7 +4352,7 @@
       <c r="C48" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="89"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="68">
         <f>6.02+12.52+13.01</f>
         <v>31.549999999999997</v>
@@ -4192,7 +4381,7 @@
       <c r="C49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="89"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="68">
         <f>17.4+12.8+6.96+7.5+6.23</f>
         <v>50.89</v>
@@ -4222,7 +4411,7 @@
       <c r="C50" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="85"/>
+      <c r="D50" s="95"/>
       <c r="E50" s="68">
         <v>9.02</v>
       </c>
@@ -4251,7 +4440,7 @@
       <c r="C51" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="86" t="s">
+      <c r="D51" s="90" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="68">
@@ -4283,7 +4472,7 @@
       <c r="C52" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="87"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="68">
         <f>8.94+12.14+4.28+4.14+3.26</f>
         <v>32.76</v>
@@ -4313,7 +4502,7 @@
       <c r="C53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="87"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="68">
         <f>10.08+6.92+2.74+5.6+10.98+4.32+4.62+5.48+3.54+11.8</f>
         <v>66.080000000000013</v>
@@ -4341,17 +4530,17 @@
       <c r="C54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="88"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="68">
         <f>5.74+7.44+5.48</f>
         <v>18.66</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="77" t="s">
+      <c r="H54" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="78"/>
+      <c r="I54" s="77"/>
       <c r="J54" s="24">
         <f>SUM(J45:J53)</f>
         <v>246.18000000000004</v>
@@ -4371,7 +4560,7 @@
       <c r="C55" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="D55" s="93" t="s">
         <v>48</v>
       </c>
       <c r="E55" s="68">
@@ -4385,10 +4574,10 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="81" t="s">
+      <c r="M55" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="N55" s="81"/>
+      <c r="N55" s="84"/>
       <c r="O55" s="18" t="s">
         <v>48</v>
       </c>
@@ -4400,7 +4589,7 @@
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="89"/>
+      <c r="D56" s="94"/>
       <c r="E56" s="68">
         <f>3.42+6.82+6.12+5+3.46</f>
         <v>24.82</v>
@@ -4412,13 +4601,13 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="82" t="s">
+      <c r="M56" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="82" t="s">
+      <c r="N56" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="74" t="s">
+      <c r="O56" s="96" t="s">
         <v>0</v>
       </c>
       <c r="P56" s="12"/>
@@ -4429,7 +4618,7 @@
       <c r="C57" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="89"/>
+      <c r="D57" s="94"/>
       <c r="E57" s="67">
         <f>22.98+4.86+20.9+1.84+12.52</f>
         <v>63.099999999999994</v>
@@ -4441,9 +4630,9 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="75"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="97"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="17"/>
     </row>
@@ -4452,7 +4641,7 @@
       <c r="C58" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="85"/>
+      <c r="D58" s="95"/>
       <c r="E58" s="67">
         <f>10.3</f>
         <v>10.3</v>
@@ -4482,7 +4671,7 @@
       <c r="C59" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="84" t="s">
+      <c r="D59" s="93" t="s">
         <v>35</v>
       </c>
       <c r="E59" s="67">
@@ -4513,7 +4702,7 @@
       <c r="C60" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="85"/>
+      <c r="D60" s="95"/>
       <c r="E60" s="67">
         <v>1.54</v>
       </c>
@@ -4542,7 +4731,7 @@
       <c r="C61" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="78" t="s">
         <v>61</v>
       </c>
       <c r="E61" s="68">
@@ -4573,7 +4762,7 @@
       <c r="C62" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="97"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="67">
         <f>17.52+7.92+16.68+10.52</f>
         <v>52.64</v>
@@ -4602,7 +4791,7 @@
       <c r="C63" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="97"/>
+      <c r="D63" s="78"/>
       <c r="E63" s="67">
         <f>6.68</f>
         <v>6.68</v>
@@ -4634,7 +4823,7 @@
       <c r="C64" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="84" t="s">
+      <c r="D64" s="93" t="s">
         <v>81</v>
       </c>
       <c r="E64" s="49">
@@ -4643,19 +4832,19 @@
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="57"/>
-      <c r="H64" s="81" t="s">
+      <c r="H64" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="81"/>
+      <c r="I64" s="84"/>
       <c r="J64" s="18" t="s">
         <v>66</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="77" t="s">
+      <c r="M64" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="N64" s="78"/>
+      <c r="N64" s="77"/>
       <c r="O64" s="24">
         <f>SUM(O58:O63)</f>
         <v>246.5</v>
@@ -4668,20 +4857,20 @@
       <c r="C65" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="89"/>
+      <c r="D65" s="94"/>
       <c r="E65" s="49">
         <f>7.5+6.42</f>
         <v>13.92</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="57"/>
-      <c r="H65" s="79" t="s">
+      <c r="H65" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="79" t="s">
+      <c r="I65" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="J65" s="76" t="s">
+      <c r="J65" s="83" t="s">
         <v>0</v>
       </c>
       <c r="K65" s="12"/>
@@ -4697,16 +4886,16 @@
       <c r="C66" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="85"/>
+      <c r="D66" s="95"/>
       <c r="E66" s="49">
         <f>2.28+5.9</f>
         <v>8.18</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="76"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="83"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12" t="s">
@@ -4722,7 +4911,7 @@
       <c r="C67" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="84" t="s">
+      <c r="D67" s="93" t="s">
         <v>83</v>
       </c>
       <c r="E67" s="49">
@@ -4743,10 +4932,10 @@
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="81" t="s">
+      <c r="M67" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="N67" s="81"/>
+      <c r="N67" s="84"/>
       <c r="O67" s="18" t="s">
         <v>35</v>
       </c>
@@ -4758,7 +4947,7 @@
       <c r="C68" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="89"/>
+      <c r="D68" s="94"/>
       <c r="E68" s="49">
         <f>3.64+4.08</f>
         <v>7.7200000000000006</v>
@@ -4777,13 +4966,13 @@
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="79" t="s">
+      <c r="M68" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="N68" s="79" t="s">
+      <c r="N68" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="76" t="s">
+      <c r="O68" s="83" t="s">
         <v>0</v>
       </c>
       <c r="P68" s="12"/>
@@ -4794,7 +4983,7 @@
       <c r="C69" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="85"/>
+      <c r="D69" s="95"/>
       <c r="E69" s="49">
         <f>5.36</f>
         <v>5.36</v>
@@ -4813,9 +5002,9 @@
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="76"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="83"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="17"/>
     </row>
@@ -4860,10 +5049,10 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="16"/>
-      <c r="C71" s="77" t="s">
+      <c r="C71" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="78"/>
+      <c r="D71" s="77"/>
       <c r="E71" s="28">
         <f>SUM(E45:E63)</f>
         <v>932.65999999999985</v>
@@ -4933,10 +5122,10 @@
       <c r="E73" s="39"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="77" t="s">
+      <c r="H73" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="78"/>
+      <c r="I73" s="77"/>
       <c r="J73" s="24">
         <f>SUM(J67:J72)</f>
         <v>103.64</v>
@@ -4964,10 +5153,10 @@
       <c r="J74" s="11"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="77" t="s">
+      <c r="M74" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="N74" s="78"/>
+      <c r="N74" s="77"/>
       <c r="O74" s="28">
         <f>SUM(O70:O73)</f>
         <v>7.82</v>
@@ -5009,16 +5198,20 @@
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="16"/>
-      <c r="C77" s="81" t="s">
+      <c r="C77" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="81"/>
+      <c r="D77" s="84"/>
       <c r="E77" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="54"/>
+      <c r="H77" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
@@ -5029,18 +5222,24 @@
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="16"/>
-      <c r="C78" s="79" t="s">
+      <c r="C78" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="79" t="s">
+      <c r="D78" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="76" t="s">
+      <c r="E78" s="83" t="s">
         <v>0</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="53"/>
-      <c r="H78" s="54"/>
+      <c r="H78" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="84"/>
+      <c r="J78" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
@@ -5051,14 +5250,20 @@
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="16"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="76"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="83"/>
       <c r="F79" s="2"/>
       <c r="G79" s="53"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
+      <c r="H79" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" s="83" t="s">
+        <v>0</v>
+      </c>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
@@ -5081,9 +5286,9 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="53"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="83"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
@@ -5106,6 +5311,13 @@
       </c>
       <c r="F81" s="55"/>
       <c r="G81" s="53"/>
+      <c r="H81" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J81" s="22"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
@@ -5126,9 +5338,13 @@
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
+      <c r="H82" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J82" s="19"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
@@ -5150,6 +5366,13 @@
         <v>7.72</v>
       </c>
       <c r="F83" s="12"/>
+      <c r="H83" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J83" s="19"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="12"/>
@@ -5164,6 +5387,13 @@
         <v>5.14</v>
       </c>
       <c r="F84" s="12"/>
+      <c r="H84" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J84" s="19"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C85" s="23" t="s">
@@ -5176,6 +5406,14 @@
         <v>0.3</v>
       </c>
       <c r="F85" s="12"/>
+      <c r="H85" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="77"/>
+      <c r="J85" s="28">
+        <f>SUM(J81:J84)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C86" s="20" t="s">
@@ -5190,10 +5428,10 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C87" s="77" t="s">
+      <c r="C87" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="78"/>
+      <c r="D87" s="77"/>
       <c r="E87" s="24">
         <f>SUM(E80:E86)</f>
         <v>328.52</v>
@@ -5210,45 +5448,12 @@
       <c r="E90" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
+  <mergeCells count="59">
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="H85:I85"/>
     <mergeCell ref="D45:D50"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="D67:D69"/>
@@ -5265,6 +5470,1960 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E78:E79"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="60">
+        <f>E23 + J18</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="6">
+        <f>J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="9">
+        <f>O64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="9">
+        <f>O74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="9">
+        <f>E90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="I7" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="62">
+        <f>J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="I8" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="63">
+        <f>SUM(J3:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="80"/>
+      <c r="J14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="77"/>
+      <c r="J18" s="28">
+        <f>SUM(J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="77"/>
+      <c r="E23" s="28">
+        <f>SUM(E17:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="12"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="17"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="80"/>
+      <c r="E42" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="84"/>
+      <c r="J42" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="17"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="17"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="17"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="49"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="17"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="94"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="100"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="17"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+      <c r="C47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="94"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="17"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+      <c r="C48" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="94"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="29"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="17"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="C49" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="94"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="29"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="17"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="C50" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="95"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="29"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="17"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+      <c r="C51" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="29">
+        <f>9.6 + 24 + 17.9 + 12.92 + 24.25 + 9.8 + 5.8 + 10 + 18.6</f>
+        <v>132.87</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="29"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="17"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+      <c r="C52" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="91"/>
+      <c r="E52" s="29">
+        <f>10.96 + 2.58 + 5.72 + 11.8</f>
+        <v>31.060000000000002</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="29"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="17"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="16"/>
+      <c r="C53" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="91"/>
+      <c r="E53" s="29">
+        <f>24.48 + 13.06 + 18.34 + 9.8 + 3.9</f>
+        <v>69.58</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="51"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="17"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+      <c r="C54" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="91"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="77"/>
+      <c r="J54" s="24">
+        <f>SUM(J45:J53)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="17"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="C55" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="92"/>
+      <c r="E55" s="29">
+        <f>9.36</f>
+        <v>9.36</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="N55" s="84"/>
+      <c r="O55" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="17"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="C56" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="29">
+        <f>4.62 + 5.38 + 6.76 + 13.4 + 16.16 + 16.75 + 11.25 + 13.85 + 16.8</f>
+        <v>104.96999999999998</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="O56" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="17"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="C57" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="94"/>
+      <c r="E57" s="29">
+        <f>8.76 + 3.34 + 6.6 + 9.82 + 2.16 + 9.44 + 5.56</f>
+        <v>45.68</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="97"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="17"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+      <c r="C58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="94"/>
+      <c r="E58" s="49">
+        <f>15.28</f>
+        <v>15.28</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N58" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" s="22"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="17"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="16"/>
+      <c r="C59" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="94"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N59" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O59" s="19"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="17"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+      <c r="C60" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="95"/>
+      <c r="E60" s="49">
+        <f>4.3</f>
+        <v>4.3</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O60" s="19"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="17"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
+      <c r="C61" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="49"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N61" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O61" s="19"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="17"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="16"/>
+      <c r="C62" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="95"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N62" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O62" s="19"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="17"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="16"/>
+      <c r="C63" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" s="19"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="17"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+      <c r="C64" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="78"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="84"/>
+      <c r="J64" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="N64" s="77"/>
+      <c r="O64" s="24">
+        <f>SUM(O58:O63)</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="17"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="16"/>
+      <c r="C65" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="78"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="17"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="16"/>
+      <c r="C66" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="49">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="17"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="16"/>
+      <c r="C67" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="94"/>
+      <c r="E67" s="49">
+        <f>6.7 + 4.36 + 7.9</f>
+        <v>18.96</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J67" s="49"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="N67" s="84"/>
+      <c r="O67" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="17"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="16"/>
+      <c r="C68" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="94"/>
+      <c r="E68" s="49">
+        <f>9.4 + 5.15</f>
+        <v>14.55</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J68" s="29"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="N68" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="17"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="16"/>
+      <c r="C69" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="95"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69" s="29"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="17"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="16"/>
+      <c r="C70" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="49"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="J70" s="29"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N70" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O70" s="22"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="17"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="16"/>
+      <c r="C71" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="94"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="J71" s="29"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N71" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O71" s="19"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="17"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="16"/>
+      <c r="C72" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="95"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J72" s="19"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O72" s="19"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="17"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="16"/>
+      <c r="C73" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="49"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="77"/>
+      <c r="J73" s="24">
+        <f>SUM(J67:J72)</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O73" s="19"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="17"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="16"/>
+      <c r="C74" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="77"/>
+      <c r="E74" s="28">
+        <f>SUM(E45:E65)</f>
+        <v>413.09999999999997</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="N74" s="77"/>
+      <c r="O74" s="28">
+        <f>SUM(O70:O73)</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="17"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="16"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="17"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="17"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B77" s="16"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="17"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B78" s="16"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="84"/>
+      <c r="J78" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="17"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="16"/>
+      <c r="C79" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="17"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B80" s="16"/>
+      <c r="C80" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="84"/>
+      <c r="E80" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="83"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="17"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81" s="16"/>
+      <c r="C81" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="55"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J81" s="22"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="17"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="12"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J82" s="19"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="12"/>
+      <c r="C83" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="49"/>
+      <c r="F83" s="12"/>
+      <c r="H83" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J83" s="19"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84" s="12"/>
+      <c r="C84" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="29"/>
+      <c r="F84" s="12"/>
+      <c r="H84" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J84" s="19"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C85" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="12"/>
+      <c r="H85" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="77"/>
+      <c r="J85" s="28">
+        <f>SUM(J81:J84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C86" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="29"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C87" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" s="29"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C88" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" s="29"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C89" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="19"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C90" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="77"/>
+      <c r="E90" s="24">
+        <f>SUM(E83:E89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="93" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Laporan/2024/2024Laporan Limbah.xlsx
+++ b/Laporan/2024/2024Laporan Limbah.xlsx
@@ -762,36 +762,72 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,43 +840,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1737,18 +1737,18 @@
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
       <c r="K12" s="12"/>
       <c r="L12" s="17"/>
       <c r="M12" s="12"/>
@@ -1761,14 +1761,14 @@
     </row>
     <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
       <c r="K13" s="12"/>
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
@@ -1781,19 +1781,19 @@
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="80"/>
+      <c r="I14" s="96"/>
       <c r="J14" s="18" t="s">
         <v>10</v>
       </c>
@@ -1809,27 +1809,27 @@
     </row>
     <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="81" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="81" t="s">
+      <c r="I15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="95" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="17"/>
@@ -1843,15 +1843,15 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,10 +1898,10 @@
         <v>12.74</v>
       </c>
       <c r="G18" s="12"/>
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="83"/>
       <c r="J18" s="28">
         <f>SUM(J17)</f>
         <v>47.199999999999996</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="28">
         <f>SUM(E17:E22)</f>
         <v>38.36</v>
@@ -2155,8 +2155,8 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="33"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
@@ -2208,8 +2208,8 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="39"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -2266,15 +2266,15 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="30"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="39"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -2287,9 +2287,9 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="30"/>
       <c r="G41" s="12"/>
       <c r="H41" s="30" t="s">
@@ -2308,19 +2308,19 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="80"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="84"/>
+      <c r="I42" s="86"/>
       <c r="J42" s="18" t="s">
         <v>26</v>
       </c>
@@ -2335,24 +2335,24 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="81" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="81" t="s">
+      <c r="I43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="83" t="s">
+      <c r="J43" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="12"/>
@@ -2366,14 +2366,14 @@
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="30"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="83"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="81"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="34"/>
@@ -2388,7 +2388,7 @@
       <c r="C45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="93" t="s">
+      <c r="D45" s="89" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="49">
@@ -2564,7 +2564,7 @@
       <c r="C51" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="95"/>
+      <c r="D51" s="90"/>
       <c r="E51" s="29">
         <v>1.4</v>
       </c>
@@ -2593,7 +2593,7 @@
       <c r="C52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="90" t="s">
+      <c r="D52" s="91" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="29">
@@ -2625,7 +2625,7 @@
       <c r="C53" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="91"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="29">
         <f>19.68 + 7.02 + 15.34</f>
         <v>42.04</v>
@@ -2653,17 +2653,17 @@
       <c r="C54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="91"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="29">
         <f>21.08 + 21.12 + 17.46 + 6.5</f>
         <v>66.16</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="76" t="s">
+      <c r="H54" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="77"/>
+      <c r="I54" s="83"/>
       <c r="J54" s="24">
         <f>SUM(J45:J53)</f>
         <v>158.74</v>
@@ -2683,7 +2683,7 @@
       <c r="C55" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="91"/>
+      <c r="D55" s="92"/>
       <c r="E55" s="29">
         <f>8.86 + 5.66</f>
         <v>14.52</v>
@@ -2695,10 +2695,10 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="84" t="s">
+      <c r="M55" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="N55" s="84"/>
+      <c r="N55" s="86"/>
       <c r="O55" s="18" t="s">
         <v>48</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="C56" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="92"/>
+      <c r="D56" s="93"/>
       <c r="E56" s="29">
         <v>12.8</v>
       </c>
@@ -2721,13 +2721,13 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="98" t="s">
+      <c r="M56" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="98" t="s">
+      <c r="N56" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="96" t="s">
+      <c r="O56" s="79" t="s">
         <v>0</v>
       </c>
       <c r="P56" s="12"/>
@@ -2738,7 +2738,7 @@
       <c r="C57" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="93" t="s">
+      <c r="D57" s="89" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="29">
@@ -2752,9 +2752,9 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="97"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="80"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="17"/>
     </row>
@@ -2763,7 +2763,7 @@
       <c r="C58" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="95"/>
+      <c r="D58" s="90"/>
       <c r="E58" s="49">
         <f>17.52 + 4.82</f>
         <v>22.34</v>
@@ -2793,7 +2793,7 @@
       <c r="C59" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="93" t="s">
+      <c r="D59" s="89" t="s">
         <v>35</v>
       </c>
       <c r="E59" s="49">
@@ -2825,7 +2825,7 @@
       <c r="C60" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="95"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="49">
         <v>6.76</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="C61" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="102" t="s">
         <v>61</v>
       </c>
       <c r="E61" s="19">
@@ -2885,7 +2885,7 @@
       <c r="C62" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="78"/>
+      <c r="D62" s="102"/>
       <c r="E62" s="49">
         <f>7.16</f>
         <v>7.16</v>
@@ -2915,7 +2915,7 @@
       <c r="C63" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="78"/>
+      <c r="D63" s="102"/>
       <c r="E63" s="49">
         <v>4.04</v>
       </c>
@@ -2943,29 +2943,29 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="16"/>
-      <c r="C64" s="76" t="s">
+      <c r="C64" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="77"/>
+      <c r="D64" s="83"/>
       <c r="E64" s="28">
         <f>SUM(E45:E63)</f>
         <v>568.8599999999999</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="57"/>
-      <c r="H64" s="84" t="s">
+      <c r="H64" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="84"/>
+      <c r="I64" s="86"/>
       <c r="J64" s="18" t="s">
         <v>66</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="76" t="s">
+      <c r="M64" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="N64" s="77"/>
+      <c r="N64" s="83"/>
       <c r="O64" s="24">
         <f>SUM(O58:O63)</f>
         <v>85.269999999999982</v>
@@ -2980,13 +2980,13 @@
       <c r="E65" s="39"/>
       <c r="F65" s="12"/>
       <c r="G65" s="57"/>
-      <c r="H65" s="81" t="s">
+      <c r="H65" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="81" t="s">
+      <c r="I65" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J65" s="83" t="s">
+      <c r="J65" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K65" s="12"/>
@@ -3004,9 +3004,9 @@
       <c r="E66" s="39"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="83"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="81"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12" t="s">
@@ -3032,10 +3032,10 @@
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="84" t="s">
+      <c r="M67" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="N67" s="84"/>
+      <c r="N67" s="86"/>
       <c r="O67" s="18" t="s">
         <v>35</v>
       </c>
@@ -3058,13 +3058,13 @@
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="81" t="s">
+      <c r="M68" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="N68" s="81" t="s">
+      <c r="N68" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="83" t="s">
+      <c r="O68" s="81" t="s">
         <v>0</v>
       </c>
       <c r="P68" s="12"/>
@@ -3091,18 +3091,18 @@
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="83"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="85"/>
+      <c r="O69" s="81"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="17"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="16"/>
-      <c r="C70" s="84" t="s">
+      <c r="C70" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="84"/>
+      <c r="D70" s="86"/>
       <c r="E70" s="18" t="s">
         <v>25</v>
       </c>
@@ -3134,13 +3134,13 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="16"/>
-      <c r="C71" s="81" t="s">
+      <c r="C71" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="81" t="s">
+      <c r="D71" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="83" t="s">
+      <c r="E71" s="81" t="s">
         <v>0</v>
       </c>
       <c r="F71" s="12"/>
@@ -3171,9 +3171,9 @@
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="16"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="83"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="81"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="23" t="s">
@@ -3215,10 +3215,10 @@
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="76" t="s">
+      <c r="H73" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="77"/>
+      <c r="I73" s="83"/>
       <c r="J73" s="24">
         <f>SUM(J67:J72)</f>
         <v>41.76</v>
@@ -3257,10 +3257,10 @@
       <c r="J74" s="11"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="76" t="s">
+      <c r="M74" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="N74" s="77"/>
+      <c r="N74" s="83"/>
       <c r="O74" s="28">
         <f>SUM(O70:O73)</f>
         <v>44.42</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="16"/>
-      <c r="C79" s="76" t="s">
+      <c r="C79" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="77"/>
+      <c r="D79" s="83"/>
       <c r="E79" s="24">
         <f>SUM(E73:E78)</f>
         <v>238.73</v>
@@ -3432,6 +3432,43 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="H54:I54"/>
     <mergeCell ref="O56:O57"/>
     <mergeCell ref="O68:O69"/>
     <mergeCell ref="M74:N74"/>
@@ -3447,43 +3484,6 @@
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="H73:I73"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="C64:D64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3648,18 +3648,18 @@
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
       <c r="K12" s="12"/>
       <c r="L12" s="17"/>
       <c r="M12" s="12"/>
@@ -3672,14 +3672,14 @@
     </row>
     <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
       <c r="K13" s="12"/>
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
@@ -3692,19 +3692,19 @@
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="80"/>
+      <c r="I14" s="96"/>
       <c r="J14" s="18" t="s">
         <v>10</v>
       </c>
@@ -3720,27 +3720,27 @@
     </row>
     <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="81" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="81" t="s">
+      <c r="I15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="95" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="17"/>
@@ -3754,15 +3754,15 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3795,10 +3795,10 @@
       <c r="E18" s="22"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="83"/>
       <c r="J18" s="28">
         <f>SUM(J17)</f>
         <v>0</v>
@@ -3872,10 +3872,10 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="28">
         <f>SUM(E17:E22)</f>
         <v>0</v>
@@ -4033,8 +4033,8 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="33"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
@@ -4086,8 +4086,8 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="39"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -4144,15 +4144,15 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="30"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="39"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -4165,9 +4165,9 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="30"/>
       <c r="G41" s="12"/>
       <c r="H41" s="30" t="s">
@@ -4186,19 +4186,19 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="80"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="84"/>
+      <c r="I42" s="86"/>
       <c r="J42" s="18" t="s">
         <v>26</v>
       </c>
@@ -4213,24 +4213,24 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="81" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="81" t="s">
+      <c r="I43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="83" t="s">
+      <c r="J43" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="12"/>
@@ -4244,14 +4244,14 @@
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="30"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="83"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="81"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="34"/>
@@ -4266,7 +4266,7 @@
       <c r="C45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="93" t="s">
+      <c r="D45" s="89" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="67">
@@ -4411,7 +4411,7 @@
       <c r="C50" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="95"/>
+      <c r="D50" s="90"/>
       <c r="E50" s="68">
         <v>9.02</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="C51" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="90" t="s">
+      <c r="D51" s="91" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="68">
@@ -4472,7 +4472,7 @@
       <c r="C52" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="91"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="68">
         <f>8.94+12.14+4.28+4.14+3.26</f>
         <v>32.76</v>
@@ -4502,7 +4502,7 @@
       <c r="C53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="91"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="68">
         <f>10.08+6.92+2.74+5.6+10.98+4.32+4.62+5.48+3.54+11.8</f>
         <v>66.080000000000013</v>
@@ -4530,17 +4530,17 @@
       <c r="C54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="92"/>
+      <c r="D54" s="93"/>
       <c r="E54" s="68">
         <f>5.74+7.44+5.48</f>
         <v>18.66</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="76" t="s">
+      <c r="H54" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="77"/>
+      <c r="I54" s="83"/>
       <c r="J54" s="24">
         <f>SUM(J45:J53)</f>
         <v>246.18000000000004</v>
@@ -4560,7 +4560,7 @@
       <c r="C55" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="93" t="s">
+      <c r="D55" s="89" t="s">
         <v>48</v>
       </c>
       <c r="E55" s="68">
@@ -4574,10 +4574,10 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="84" t="s">
+      <c r="M55" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="N55" s="84"/>
+      <c r="N55" s="86"/>
       <c r="O55" s="18" t="s">
         <v>48</v>
       </c>
@@ -4601,13 +4601,13 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="98" t="s">
+      <c r="M56" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="98" t="s">
+      <c r="N56" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="96" t="s">
+      <c r="O56" s="79" t="s">
         <v>0</v>
       </c>
       <c r="P56" s="12"/>
@@ -4630,9 +4630,9 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="97"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="80"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="17"/>
     </row>
@@ -4641,7 +4641,7 @@
       <c r="C58" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="95"/>
+      <c r="D58" s="90"/>
       <c r="E58" s="67">
         <f>10.3</f>
         <v>10.3</v>
@@ -4671,7 +4671,7 @@
       <c r="C59" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="93" t="s">
+      <c r="D59" s="89" t="s">
         <v>35</v>
       </c>
       <c r="E59" s="67">
@@ -4702,7 +4702,7 @@
       <c r="C60" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="95"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="67">
         <v>1.54</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="C61" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="102" t="s">
         <v>61</v>
       </c>
       <c r="E61" s="68">
@@ -4762,7 +4762,7 @@
       <c r="C62" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="78"/>
+      <c r="D62" s="102"/>
       <c r="E62" s="67">
         <f>17.52+7.92+16.68+10.52</f>
         <v>52.64</v>
@@ -4791,7 +4791,7 @@
       <c r="C63" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="78"/>
+      <c r="D63" s="102"/>
       <c r="E63" s="67">
         <f>6.68</f>
         <v>6.68</v>
@@ -4823,7 +4823,7 @@
       <c r="C64" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="93" t="s">
+      <c r="D64" s="89" t="s">
         <v>81</v>
       </c>
       <c r="E64" s="49">
@@ -4832,19 +4832,19 @@
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="57"/>
-      <c r="H64" s="84" t="s">
+      <c r="H64" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="84"/>
+      <c r="I64" s="86"/>
       <c r="J64" s="18" t="s">
         <v>66</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="76" t="s">
+      <c r="M64" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="N64" s="77"/>
+      <c r="N64" s="83"/>
       <c r="O64" s="24">
         <f>SUM(O58:O63)</f>
         <v>246.5</v>
@@ -4864,13 +4864,13 @@
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="57"/>
-      <c r="H65" s="81" t="s">
+      <c r="H65" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="81" t="s">
+      <c r="I65" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J65" s="83" t="s">
+      <c r="J65" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K65" s="12"/>
@@ -4886,16 +4886,16 @@
       <c r="C66" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="95"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="49">
         <f>2.28+5.9</f>
         <v>8.18</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="83"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="81"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12" t="s">
@@ -4911,7 +4911,7 @@
       <c r="C67" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="93" t="s">
+      <c r="D67" s="89" t="s">
         <v>83</v>
       </c>
       <c r="E67" s="49">
@@ -4932,10 +4932,10 @@
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="84" t="s">
+      <c r="M67" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="N67" s="84"/>
+      <c r="N67" s="86"/>
       <c r="O67" s="18" t="s">
         <v>35</v>
       </c>
@@ -4966,13 +4966,13 @@
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="81" t="s">
+      <c r="M68" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="N68" s="81" t="s">
+      <c r="N68" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="83" t="s">
+      <c r="O68" s="81" t="s">
         <v>0</v>
       </c>
       <c r="P68" s="12"/>
@@ -4983,7 +4983,7 @@
       <c r="C69" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="95"/>
+      <c r="D69" s="90"/>
       <c r="E69" s="49">
         <f>5.36</f>
         <v>5.36</v>
@@ -5002,9 +5002,9 @@
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="83"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="85"/>
+      <c r="O69" s="81"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="17"/>
     </row>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="16"/>
-      <c r="C71" s="76" t="s">
+      <c r="C71" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="77"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="28">
         <f>SUM(E45:E63)</f>
         <v>932.65999999999985</v>
@@ -5122,10 +5122,10 @@
       <c r="E73" s="39"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="76" t="s">
+      <c r="H73" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="77"/>
+      <c r="I73" s="83"/>
       <c r="J73" s="24">
         <f>SUM(J67:J72)</f>
         <v>103.64</v>
@@ -5153,10 +5153,10 @@
       <c r="J74" s="11"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="76" t="s">
+      <c r="M74" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="N74" s="77"/>
+      <c r="N74" s="83"/>
       <c r="O74" s="28">
         <f>SUM(O70:O73)</f>
         <v>7.82</v>
@@ -5198,10 +5198,10 @@
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="16"/>
-      <c r="C77" s="84" t="s">
+      <c r="C77" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="84"/>
+      <c r="D77" s="86"/>
       <c r="E77" s="18" t="s">
         <v>25</v>
       </c>
@@ -5222,21 +5222,21 @@
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="16"/>
-      <c r="C78" s="81" t="s">
+      <c r="C78" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="81" t="s">
+      <c r="D78" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="83" t="s">
+      <c r="E78" s="81" t="s">
         <v>0</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="53"/>
-      <c r="H78" s="84" t="s">
+      <c r="H78" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="I78" s="84"/>
+      <c r="I78" s="86"/>
       <c r="J78" s="18" t="s">
         <v>81</v>
       </c>
@@ -5250,18 +5250,18 @@
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="16"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="83"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="81"/>
       <c r="F79" s="2"/>
       <c r="G79" s="53"/>
-      <c r="H79" s="81" t="s">
+      <c r="H79" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="81" t="s">
+      <c r="I79" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J79" s="83" t="s">
+      <c r="J79" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K79" s="12"/>
@@ -5286,9 +5286,9 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="53"/>
-      <c r="H80" s="82"/>
-      <c r="I80" s="82"/>
-      <c r="J80" s="83"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="85"/>
+      <c r="J80" s="81"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
@@ -5406,10 +5406,10 @@
         <v>0.3</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="H85" s="76" t="s">
+      <c r="H85" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="77"/>
+      <c r="I85" s="83"/>
       <c r="J85" s="28">
         <f>SUM(J81:J84)</f>
         <v>0</v>
@@ -5428,10 +5428,10 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C87" s="76" t="s">
+      <c r="C87" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="77"/>
+      <c r="D87" s="83"/>
       <c r="E87" s="24">
         <f>SUM(E80:E86)</f>
         <v>328.52</v>
@@ -5449,11 +5449,44 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
     <mergeCell ref="D45:D50"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="D67:D69"/>
@@ -5470,44 +5503,11 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E78:E79"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="H85:I85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5519,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5672,18 +5672,18 @@
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
       <c r="K12" s="12"/>
       <c r="L12" s="17"/>
       <c r="M12" s="12"/>
@@ -5696,14 +5696,14 @@
     </row>
     <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
       <c r="K13" s="12"/>
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
@@ -5716,19 +5716,19 @@
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="80"/>
+      <c r="I14" s="96"/>
       <c r="J14" s="18" t="s">
         <v>10</v>
       </c>
@@ -5744,27 +5744,27 @@
     </row>
     <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="81" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="81" t="s">
+      <c r="I15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="95" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="17"/>
@@ -5778,15 +5778,15 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5819,10 +5819,10 @@
       <c r="E18" s="22"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="83"/>
       <c r="J18" s="28">
         <f>SUM(J17)</f>
         <v>0</v>
@@ -5896,10 +5896,10 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="28">
         <f>SUM(E17:E22)</f>
         <v>0</v>
@@ -6057,8 +6057,8 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="33"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
@@ -6110,8 +6110,8 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="39"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -6168,15 +6168,15 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="30"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="39"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -6189,9 +6189,9 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="30"/>
       <c r="G41" s="12"/>
       <c r="H41" s="30" t="s">
@@ -6210,19 +6210,19 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="80"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="84"/>
+      <c r="I42" s="86"/>
       <c r="J42" s="18" t="s">
         <v>26</v>
       </c>
@@ -6237,24 +6237,24 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="81" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="81" t="s">
+      <c r="I43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="83" t="s">
+      <c r="J43" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="12"/>
@@ -6268,14 +6268,14 @@
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="30"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="83"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="81"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="34"/>
@@ -6290,16 +6290,16 @@
       <c r="C45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="93" t="s">
+      <c r="D45" s="89" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="49"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="100" t="s">
+      <c r="H45" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="100" t="s">
+      <c r="I45" s="76" t="s">
         <v>28</v>
       </c>
       <c r="J45" s="49"/>
@@ -6321,10 +6321,10 @@
       <c r="E46" s="49"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="101" t="s">
+      <c r="H46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="100"/>
+      <c r="I46" s="76"/>
       <c r="J46" s="29"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
@@ -6343,7 +6343,7 @@
       <c r="E47" s="29"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="101" t="s">
+      <c r="H47" s="77" t="s">
         <v>30</v>
       </c>
       <c r="I47" s="25"/>
@@ -6409,11 +6409,11 @@
       <c r="C50" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="95"/>
+      <c r="D50" s="90"/>
       <c r="E50" s="29"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="101" t="s">
+      <c r="H50" s="77" t="s">
         <v>19</v>
       </c>
       <c r="I50" s="25" t="s">
@@ -6433,7 +6433,7 @@
       <c r="C51" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="90" t="s">
+      <c r="D51" s="91" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="29">
@@ -6462,17 +6462,17 @@
       <c r="C52" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="91"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="29">
         <f>10.96 + 2.58 + 5.72 + 11.8</f>
         <v>31.060000000000002</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="100" t="s">
+      <c r="H52" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="102" t="s">
+      <c r="I52" s="78" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="29"/>
@@ -6489,7 +6489,7 @@
       <c r="C53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="91"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="29">
         <f>24.48 + 13.06 + 18.34 + 9.8 + 3.9</f>
         <v>69.58</v>
@@ -6514,14 +6514,14 @@
       <c r="C54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="91"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="29"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="76" t="s">
+      <c r="H54" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="77"/>
+      <c r="I54" s="83"/>
       <c r="J54" s="24">
         <f>SUM(J45:J53)</f>
         <v>0</v>
@@ -6541,7 +6541,7 @@
       <c r="C55" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="92"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="29">
         <f>9.36</f>
         <v>9.36</v>
@@ -6553,10 +6553,10 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="84" t="s">
+      <c r="M55" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="N55" s="84"/>
+      <c r="N55" s="86"/>
       <c r="O55" s="18" t="s">
         <v>48</v>
       </c>
@@ -6568,12 +6568,12 @@
       <c r="C56" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="93" t="s">
+      <c r="D56" s="89" t="s">
         <v>48</v>
       </c>
       <c r="E56" s="29">
-        <f>4.62 + 5.38 + 6.76 + 13.4 + 16.16 + 16.75 + 11.25 + 13.85 + 16.8</f>
-        <v>104.96999999999998</v>
+        <f>4.62 + 5.38 + 6.76 + 13.4 + 16.16 + 16.75 + 11.25 + 13.85 + 16.8 + 17.4 + 21.54 + 10.12 + 4.3 + 10.44 + 14.96 + 23.6 + 13.68 + 21.9 + 7.26 + 9.54 + 21 + 3.9 + 13.3 + 7.04 + 6.22</f>
+        <v>311.17</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -6582,13 +6582,13 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="98" t="s">
+      <c r="M56" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="98" t="s">
+      <c r="N56" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="96" t="s">
+      <c r="O56" s="79" t="s">
         <v>0</v>
       </c>
       <c r="P56" s="12"/>
@@ -6601,8 +6601,8 @@
       </c>
       <c r="D57" s="94"/>
       <c r="E57" s="29">
-        <f>8.76 + 3.34 + 6.6 + 9.82 + 2.16 + 9.44 + 5.56</f>
-        <v>45.68</v>
+        <f>8.76 + 3.34 + 6.6 + 9.82 + 2.16 + 9.44 + 5.56 + 8.96 + 9.8</f>
+        <v>64.44</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -6611,9 +6611,9 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="97"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="80"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="17"/>
     </row>
@@ -6624,8 +6624,8 @@
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="49">
-        <f>15.28</f>
-        <v>15.28</v>
+        <f>15.28+4.56 + 11.92 + 3.14 + 5.54 + 6.82</f>
+        <v>47.26</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -6673,7 +6673,7 @@
       <c r="C60" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="95"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="49">
         <f>4.3</f>
         <v>4.3</v>
@@ -6700,7 +6700,7 @@
       <c r="C61" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="93" t="s">
+      <c r="D61" s="89" t="s">
         <v>35</v>
       </c>
       <c r="E61" s="49"/>
@@ -6726,7 +6726,7 @@
       <c r="C62" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="95"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="49"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
@@ -6750,7 +6750,7 @@
       <c r="C63" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="78" t="s">
+      <c r="D63" s="102" t="s">
         <v>61</v>
       </c>
       <c r="E63" s="29"/>
@@ -6778,23 +6778,23 @@
       <c r="C64" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="78"/>
+      <c r="D64" s="102"/>
       <c r="E64" s="49"/>
       <c r="F64" s="12"/>
       <c r="G64" s="57"/>
-      <c r="H64" s="84" t="s">
+      <c r="H64" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="84"/>
+      <c r="I64" s="86"/>
       <c r="J64" s="18" t="s">
         <v>66</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="76" t="s">
+      <c r="M64" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="N64" s="77"/>
+      <c r="N64" s="83"/>
       <c r="O64" s="24">
         <f>SUM(O58:O63)</f>
         <v>0</v>
@@ -6807,17 +6807,17 @@
       <c r="C65" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="78"/>
+      <c r="D65" s="102"/>
       <c r="E65" s="49"/>
       <c r="F65" s="12"/>
       <c r="G65" s="57"/>
-      <c r="H65" s="81" t="s">
+      <c r="H65" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="81" t="s">
+      <c r="I65" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J65" s="83" t="s">
+      <c r="J65" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K65" s="12"/>
@@ -6833,7 +6833,7 @@
       <c r="C66" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="89" t="s">
         <v>81</v>
       </c>
       <c r="E66" s="49">
@@ -6842,9 +6842,9 @@
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="83"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="81"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12" t="s">
@@ -6876,10 +6876,10 @@
       <c r="J67" s="49"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="84" t="s">
+      <c r="M67" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="N67" s="84"/>
+      <c r="N67" s="86"/>
       <c r="O67" s="18" t="s">
         <v>35</v>
       </c>
@@ -6907,13 +6907,13 @@
       <c r="J68" s="29"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="81" t="s">
+      <c r="M68" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="N68" s="81" t="s">
+      <c r="N68" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="83" t="s">
+      <c r="O68" s="81" t="s">
         <v>0</v>
       </c>
       <c r="P68" s="12"/>
@@ -6924,7 +6924,7 @@
       <c r="C69" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="95"/>
+      <c r="D69" s="90"/>
       <c r="E69" s="49"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -6937,9 +6937,9 @@
       <c r="J69" s="29"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="83"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="85"/>
+      <c r="O69" s="81"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="17"/>
     </row>
@@ -6948,16 +6948,16 @@
       <c r="C70" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="93" t="s">
+      <c r="D70" s="89" t="s">
         <v>83</v>
       </c>
       <c r="E70" s="49"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
-      <c r="H70" s="101" t="s">
+      <c r="H70" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="I70" s="101" t="s">
+      <c r="I70" s="77" t="s">
         <v>69</v>
       </c>
       <c r="J70" s="29"/>
@@ -6982,10 +6982,10 @@
       <c r="E71" s="49"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
-      <c r="H71" s="101" t="s">
+      <c r="H71" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="I71" s="101" t="s">
+      <c r="I71" s="77" t="s">
         <v>70</v>
       </c>
       <c r="J71" s="29"/>
@@ -7006,7 +7006,7 @@
       <c r="C72" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="95"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="49"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7040,10 +7040,10 @@
       <c r="E73" s="49"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="76" t="s">
+      <c r="H73" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="77"/>
+      <c r="I73" s="83"/>
       <c r="J73" s="24">
         <f>SUM(J67:J72)</f>
         <v>0</v>
@@ -7062,13 +7062,13 @@
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="16"/>
-      <c r="C74" s="76" t="s">
+      <c r="C74" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="77"/>
+      <c r="D74" s="83"/>
       <c r="E74" s="28">
         <f>SUM(E45:E65)</f>
-        <v>413.09999999999997</v>
+        <v>670.04</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7077,10 +7077,10 @@
       <c r="J74" s="11"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="76" t="s">
+      <c r="M74" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="N74" s="77"/>
+      <c r="N74" s="83"/>
       <c r="O74" s="28">
         <f>SUM(O70:O73)</f>
         <v>0</v>
@@ -7142,10 +7142,10 @@
       <c r="B78" s="16"/>
       <c r="F78" s="2"/>
       <c r="G78" s="53"/>
-      <c r="H78" s="84" t="s">
+      <c r="H78" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="I78" s="84"/>
+      <c r="I78" s="86"/>
       <c r="J78" s="18" t="s">
         <v>81</v>
       </c>
@@ -7166,13 +7166,13 @@
       <c r="E79" s="12"/>
       <c r="F79" s="2"/>
       <c r="G79" s="53"/>
-      <c r="H79" s="81" t="s">
+      <c r="H79" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="81" t="s">
+      <c r="I79" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J79" s="83" t="s">
+      <c r="J79" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K79" s="12"/>
@@ -7185,18 +7185,18 @@
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="16"/>
-      <c r="C80" s="84" t="s">
+      <c r="C80" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="D80" s="84"/>
+      <c r="D80" s="86"/>
       <c r="E80" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="53"/>
-      <c r="H80" s="82"/>
-      <c r="I80" s="82"/>
-      <c r="J80" s="83"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="85"/>
+      <c r="J80" s="81"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
@@ -7207,13 +7207,13 @@
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="16"/>
-      <c r="C81" s="81" t="s">
+      <c r="C81" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="81" t="s">
+      <c r="D81" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="83" t="s">
+      <c r="E81" s="81" t="s">
         <v>0</v>
       </c>
       <c r="F81" s="55"/>
@@ -7233,9 +7233,9 @@
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="12"/>
-      <c r="C82" s="82"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="83"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="81"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="19" t="s">
@@ -7255,10 +7255,10 @@
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="12"/>
-      <c r="C83" s="100" t="s">
+      <c r="C83" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D83" s="100" t="s">
+      <c r="D83" s="76" t="s">
         <v>28</v>
       </c>
       <c r="E83" s="49"/>
@@ -7273,10 +7273,10 @@
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="12"/>
-      <c r="C84" s="101" t="s">
+      <c r="C84" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="100" t="s">
+      <c r="D84" s="76" t="s">
         <v>42</v>
       </c>
       <c r="E84" s="29"/>
@@ -7290,7 +7290,7 @@
       <c r="J84" s="19"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C85" s="101" t="s">
+      <c r="C85" s="77" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="25" t="s">
@@ -7298,38 +7298,38 @@
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="12"/>
-      <c r="H85" s="76" t="s">
+      <c r="H85" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="77"/>
+      <c r="I85" s="83"/>
       <c r="J85" s="28">
         <f>SUM(J81:J84)</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C86" s="100" t="s">
+      <c r="C86" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D86" s="102" t="s">
+      <c r="D86" s="78" t="s">
         <v>50</v>
       </c>
       <c r="E86" s="29"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C87" s="100" t="s">
+      <c r="C87" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="102" t="s">
+      <c r="D87" s="78" t="s">
         <v>63</v>
       </c>
       <c r="E87" s="29"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C88" s="101" t="s">
+      <c r="C88" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="101" t="s">
+      <c r="D88" s="77" t="s">
         <v>88</v>
       </c>
       <c r="E88" s="29"/>
@@ -7344,10 +7344,10 @@
       <c r="E89" s="19"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C90" s="76" t="s">
+      <c r="C90" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="77"/>
+      <c r="D90" s="83"/>
       <c r="E90" s="24">
         <f>SUM(E83:E89)</f>
         <v>0</v>
@@ -7365,53 +7365,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C40:E41"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="C12:E13"/>
@@ -7424,6 +7377,53 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="D70:D72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Laporan/2024/2024Laporan Limbah.xlsx
+++ b/Laporan/2024/2024Laporan Limbah.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="105">
   <si>
     <t>BERAT (kg)</t>
   </si>
@@ -310,6 +310,27 @@
   </si>
   <si>
     <t>Tanggal : 2024.03</t>
+  </si>
+  <si>
+    <t>Braiding</t>
+  </si>
+  <si>
+    <t>Winding</t>
+  </si>
+  <si>
+    <t>M14-04015001</t>
+  </si>
+  <si>
+    <t>Nylon 150D</t>
+  </si>
+  <si>
+    <t>NYLON 130D</t>
+  </si>
+  <si>
+    <t>PVC Hitam</t>
+  </si>
+  <si>
+    <t>PVC Merah</t>
   </si>
 </sst>
 </file>
@@ -575,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -771,77 +792,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,13 +1226,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1737,18 +1761,18 @@
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
       <c r="K12" s="12"/>
       <c r="L12" s="17"/>
       <c r="M12" s="12"/>
@@ -1761,14 +1785,14 @@
     </row>
     <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
       <c r="K13" s="12"/>
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
@@ -1781,19 +1805,19 @@
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="96"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="96" t="s">
+      <c r="H14" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="96"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="18" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +1839,7 @@
       <c r="D15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
@@ -1826,10 +1850,10 @@
       <c r="I15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="99" t="s">
+      <c r="J15" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="95" t="s">
+      <c r="K15" s="88" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="17"/>
@@ -1845,13 +1869,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
-      <c r="E16" s="81"/>
+      <c r="E16" s="86"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="85"/>
       <c r="I16" s="85"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="95"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="88"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,10 +1922,10 @@
         <v>12.74</v>
       </c>
       <c r="G18" s="12"/>
-      <c r="H18" s="82" t="s">
+      <c r="H18" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="83"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="28">
         <f>SUM(J17)</f>
         <v>47.199999999999996</v>
@@ -1994,10 +2018,10 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="28">
         <f>SUM(E17:E22)</f>
         <v>38.36</v>
@@ -2155,8 +2179,8 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="33"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
@@ -2208,8 +2232,8 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
       <c r="E37" s="39"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -2266,15 +2290,15 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="30"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
       <c r="J40" s="39"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -2287,9 +2311,9 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="30"/>
       <c r="G41" s="12"/>
       <c r="H41" s="30" t="s">
@@ -2308,19 +2332,19 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="96"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="86" t="s">
+      <c r="H42" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="86"/>
+      <c r="I42" s="87"/>
       <c r="J42" s="18" t="s">
         <v>26</v>
       </c>
@@ -2341,7 +2365,7 @@
       <c r="D43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
@@ -2352,7 +2376,7 @@
       <c r="I43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="81" t="s">
+      <c r="J43" s="86" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="12"/>
@@ -2368,12 +2392,12 @@
       <c r="B44" s="16"/>
       <c r="C44" s="85"/>
       <c r="D44" s="85"/>
-      <c r="E44" s="81"/>
+      <c r="E44" s="86"/>
       <c r="F44" s="30"/>
       <c r="G44" s="12"/>
       <c r="H44" s="85"/>
       <c r="I44" s="85"/>
-      <c r="J44" s="81"/>
+      <c r="J44" s="86"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="34"/>
@@ -2388,7 +2412,7 @@
       <c r="C45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="89" t="s">
+      <c r="D45" s="96" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="49">
@@ -2421,7 +2445,7 @@
       <c r="C46" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="94"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="49">
         <v>13.68</v>
       </c>
@@ -2448,7 +2472,7 @@
       <c r="C47" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="94"/>
+      <c r="D47" s="97"/>
       <c r="E47" s="29">
         <f>19.64 + 18.92</f>
         <v>38.56</v>
@@ -2476,7 +2500,7 @@
       <c r="C48" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="94"/>
+      <c r="D48" s="97"/>
       <c r="E48" s="29">
         <f>10.56 + 11.6</f>
         <v>22.16</v>
@@ -2506,7 +2530,7 @@
       <c r="C49" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="94"/>
+      <c r="D49" s="97"/>
       <c r="E49" s="29">
         <v>10.220000000000001</v>
       </c>
@@ -2535,7 +2559,7 @@
       <c r="C50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="94"/>
+      <c r="D50" s="97"/>
       <c r="E50" s="29">
         <v>8.2799999999999994</v>
       </c>
@@ -2564,7 +2588,7 @@
       <c r="C51" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="90"/>
+      <c r="D51" s="98"/>
       <c r="E51" s="29">
         <v>1.4</v>
       </c>
@@ -2593,7 +2617,7 @@
       <c r="C52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="91" t="s">
+      <c r="D52" s="93" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="29">
@@ -2625,7 +2649,7 @@
       <c r="C53" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="92"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="29">
         <f>19.68 + 7.02 + 15.34</f>
         <v>42.04</v>
@@ -2653,17 +2677,17 @@
       <c r="C54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="92"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="29">
         <f>21.08 + 21.12 + 17.46 + 6.5</f>
         <v>66.16</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="82" t="s">
+      <c r="H54" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="83"/>
+      <c r="I54" s="80"/>
       <c r="J54" s="24">
         <f>SUM(J45:J53)</f>
         <v>158.74</v>
@@ -2683,7 +2707,7 @@
       <c r="C55" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="92"/>
+      <c r="D55" s="94"/>
       <c r="E55" s="29">
         <f>8.86 + 5.66</f>
         <v>14.52</v>
@@ -2695,10 +2719,10 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="86" t="s">
+      <c r="M55" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N55" s="86"/>
+      <c r="N55" s="87"/>
       <c r="O55" s="18" t="s">
         <v>48</v>
       </c>
@@ -2710,7 +2734,7 @@
       <c r="C56" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="93"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="29">
         <v>12.8</v>
       </c>
@@ -2721,13 +2745,13 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="87" t="s">
+      <c r="M56" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="87" t="s">
+      <c r="N56" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="79" t="s">
+      <c r="O56" s="99" t="s">
         <v>0</v>
       </c>
       <c r="P56" s="12"/>
@@ -2738,7 +2762,7 @@
       <c r="C57" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="89" t="s">
+      <c r="D57" s="96" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="29">
@@ -2752,9 +2776,9 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="80"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="100"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="17"/>
     </row>
@@ -2763,7 +2787,7 @@
       <c r="C58" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="90"/>
+      <c r="D58" s="98"/>
       <c r="E58" s="49">
         <f>17.52 + 4.82</f>
         <v>22.34</v>
@@ -2793,7 +2817,7 @@
       <c r="C59" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="89" t="s">
+      <c r="D59" s="96" t="s">
         <v>35</v>
       </c>
       <c r="E59" s="49">
@@ -2825,7 +2849,7 @@
       <c r="C60" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="90"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="49">
         <v>6.76</v>
       </c>
@@ -2854,7 +2878,7 @@
       <c r="C61" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="102" t="s">
+      <c r="D61" s="81" t="s">
         <v>61</v>
       </c>
       <c r="E61" s="19">
@@ -2885,7 +2909,7 @@
       <c r="C62" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="102"/>
+      <c r="D62" s="81"/>
       <c r="E62" s="49">
         <f>7.16</f>
         <v>7.16</v>
@@ -2915,7 +2939,7 @@
       <c r="C63" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="102"/>
+      <c r="D63" s="81"/>
       <c r="E63" s="49">
         <v>4.04</v>
       </c>
@@ -2943,29 +2967,29 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="16"/>
-      <c r="C64" s="82" t="s">
+      <c r="C64" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="83"/>
+      <c r="D64" s="80"/>
       <c r="E64" s="28">
         <f>SUM(E45:E63)</f>
         <v>568.8599999999999</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="57"/>
-      <c r="H64" s="86" t="s">
+      <c r="H64" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="86"/>
+      <c r="I64" s="87"/>
       <c r="J64" s="18" t="s">
         <v>66</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="82" t="s">
+      <c r="M64" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="N64" s="83"/>
+      <c r="N64" s="80"/>
       <c r="O64" s="24">
         <f>SUM(O58:O63)</f>
         <v>85.269999999999982</v>
@@ -2986,7 +3010,7 @@
       <c r="I65" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J65" s="81" t="s">
+      <c r="J65" s="86" t="s">
         <v>0</v>
       </c>
       <c r="K65" s="12"/>
@@ -3006,7 +3030,7 @@
       <c r="G66" s="12"/>
       <c r="H66" s="85"/>
       <c r="I66" s="85"/>
-      <c r="J66" s="81"/>
+      <c r="J66" s="86"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12" t="s">
@@ -3032,10 +3056,10 @@
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="86" t="s">
+      <c r="M67" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N67" s="86"/>
+      <c r="N67" s="87"/>
       <c r="O67" s="18" t="s">
         <v>35</v>
       </c>
@@ -3064,7 +3088,7 @@
       <c r="N68" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="81" t="s">
+      <c r="O68" s="86" t="s">
         <v>0</v>
       </c>
       <c r="P68" s="12"/>
@@ -3093,16 +3117,16 @@
       <c r="L69" s="12"/>
       <c r="M69" s="85"/>
       <c r="N69" s="85"/>
-      <c r="O69" s="81"/>
+      <c r="O69" s="86"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="17"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="16"/>
-      <c r="C70" s="86" t="s">
+      <c r="C70" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="86"/>
+      <c r="D70" s="87"/>
       <c r="E70" s="18" t="s">
         <v>25</v>
       </c>
@@ -3140,7 +3164,7 @@
       <c r="D71" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="81" t="s">
+      <c r="E71" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F71" s="12"/>
@@ -3173,7 +3197,7 @@
       <c r="B72" s="16"/>
       <c r="C72" s="85"/>
       <c r="D72" s="85"/>
-      <c r="E72" s="81"/>
+      <c r="E72" s="86"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="23" t="s">
@@ -3215,10 +3239,10 @@
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="82" t="s">
+      <c r="H73" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="83"/>
+      <c r="I73" s="80"/>
       <c r="J73" s="24">
         <f>SUM(J67:J72)</f>
         <v>41.76</v>
@@ -3257,10 +3281,10 @@
       <c r="J74" s="11"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="82" t="s">
+      <c r="M74" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="N74" s="83"/>
+      <c r="N74" s="80"/>
       <c r="O74" s="28">
         <f>SUM(O70:O73)</f>
         <v>44.42</v>
@@ -3363,10 +3387,10 @@
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="16"/>
-      <c r="C79" s="82" t="s">
+      <c r="C79" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="83"/>
+      <c r="D79" s="80"/>
       <c r="E79" s="24">
         <f>SUM(E73:E78)</f>
         <v>238.73</v>
@@ -3432,6 +3456,43 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="C12:E13"/>
@@ -3447,43 +3508,6 @@
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="J65:J66"/>
     <mergeCell ref="C64:D64"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="H73:I73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3495,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S90"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
@@ -3648,18 +3672,18 @@
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
       <c r="K12" s="12"/>
       <c r="L12" s="17"/>
       <c r="M12" s="12"/>
@@ -3672,14 +3696,14 @@
     </row>
     <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
       <c r="K13" s="12"/>
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
@@ -3692,19 +3716,19 @@
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="96"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="96" t="s">
+      <c r="H14" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="96"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="18" t="s">
         <v>10</v>
       </c>
@@ -3726,7 +3750,7 @@
       <c r="D15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
@@ -3737,10 +3761,10 @@
       <c r="I15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="99" t="s">
+      <c r="J15" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="95" t="s">
+      <c r="K15" s="88" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="17"/>
@@ -3756,13 +3780,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
-      <c r="E16" s="81"/>
+      <c r="E16" s="86"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="85"/>
       <c r="I16" s="85"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="95"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="88"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3795,10 +3819,10 @@
       <c r="E18" s="22"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="82" t="s">
+      <c r="H18" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="83"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="28">
         <f>SUM(J17)</f>
         <v>0</v>
@@ -3872,10 +3896,10 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="28">
         <f>SUM(E17:E22)</f>
         <v>0</v>
@@ -4033,8 +4057,8 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="33"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
@@ -4086,8 +4110,8 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
       <c r="E37" s="39"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -4144,15 +4168,15 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="30"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
       <c r="J40" s="39"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -4165,9 +4189,9 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="30"/>
       <c r="G41" s="12"/>
       <c r="H41" s="30" t="s">
@@ -4186,19 +4210,19 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="96"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="86" t="s">
+      <c r="H42" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="86"/>
+      <c r="I42" s="87"/>
       <c r="J42" s="18" t="s">
         <v>26</v>
       </c>
@@ -4219,7 +4243,7 @@
       <c r="D43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
@@ -4230,7 +4254,7 @@
       <c r="I43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="81" t="s">
+      <c r="J43" s="86" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="12"/>
@@ -4246,12 +4270,12 @@
       <c r="B44" s="16"/>
       <c r="C44" s="85"/>
       <c r="D44" s="85"/>
-      <c r="E44" s="81"/>
+      <c r="E44" s="86"/>
       <c r="F44" s="30"/>
       <c r="G44" s="12"/>
       <c r="H44" s="85"/>
       <c r="I44" s="85"/>
-      <c r="J44" s="81"/>
+      <c r="J44" s="86"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="34"/>
@@ -4266,7 +4290,7 @@
       <c r="C45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="89" t="s">
+      <c r="D45" s="96" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="67">
@@ -4298,7 +4322,7 @@
       <c r="C46" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="94"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="67">
         <f>4.12+3.18+1.76+3.62+3.2+15.46+9.54</f>
         <v>40.879999999999995</v>
@@ -4325,7 +4349,7 @@
       <c r="C47" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="94"/>
+      <c r="D47" s="97"/>
       <c r="E47" s="68">
         <f>15.58+3.04+10.36</f>
         <v>28.98</v>
@@ -4352,7 +4376,7 @@
       <c r="C48" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="94"/>
+      <c r="D48" s="97"/>
       <c r="E48" s="68">
         <f>6.02+12.52+13.01</f>
         <v>31.549999999999997</v>
@@ -4381,7 +4405,7 @@
       <c r="C49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="94"/>
+      <c r="D49" s="97"/>
       <c r="E49" s="68">
         <f>17.4+12.8+6.96+7.5+6.23</f>
         <v>50.89</v>
@@ -4411,7 +4435,7 @@
       <c r="C50" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="90"/>
+      <c r="D50" s="98"/>
       <c r="E50" s="68">
         <v>9.02</v>
       </c>
@@ -4440,7 +4464,7 @@
       <c r="C51" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="91" t="s">
+      <c r="D51" s="93" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="68">
@@ -4472,7 +4496,7 @@
       <c r="C52" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="92"/>
+      <c r="D52" s="94"/>
       <c r="E52" s="68">
         <f>8.94+12.14+4.28+4.14+3.26</f>
         <v>32.76</v>
@@ -4502,7 +4526,7 @@
       <c r="C53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="92"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="68">
         <f>10.08+6.92+2.74+5.6+10.98+4.32+4.62+5.48+3.54+11.8</f>
         <v>66.080000000000013</v>
@@ -4530,17 +4554,17 @@
       <c r="C54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="93"/>
+      <c r="D54" s="95"/>
       <c r="E54" s="68">
         <f>5.74+7.44+5.48</f>
         <v>18.66</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="82" t="s">
+      <c r="H54" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="83"/>
+      <c r="I54" s="80"/>
       <c r="J54" s="24">
         <f>SUM(J45:J53)</f>
         <v>246.18000000000004</v>
@@ -4560,7 +4584,7 @@
       <c r="C55" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="89" t="s">
+      <c r="D55" s="96" t="s">
         <v>48</v>
       </c>
       <c r="E55" s="68">
@@ -4574,10 +4598,10 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="86" t="s">
+      <c r="M55" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N55" s="86"/>
+      <c r="N55" s="87"/>
       <c r="O55" s="18" t="s">
         <v>48</v>
       </c>
@@ -4589,7 +4613,7 @@
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="94"/>
+      <c r="D56" s="97"/>
       <c r="E56" s="68">
         <f>3.42+6.82+6.12+5+3.46</f>
         <v>24.82</v>
@@ -4601,13 +4625,13 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="87" t="s">
+      <c r="M56" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="87" t="s">
+      <c r="N56" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="79" t="s">
+      <c r="O56" s="99" t="s">
         <v>0</v>
       </c>
       <c r="P56" s="12"/>
@@ -4618,7 +4642,7 @@
       <c r="C57" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="94"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="67">
         <f>22.98+4.86+20.9+1.84+12.52</f>
         <v>63.099999999999994</v>
@@ -4630,9 +4654,9 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="80"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="100"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="17"/>
     </row>
@@ -4641,7 +4665,7 @@
       <c r="C58" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="90"/>
+      <c r="D58" s="98"/>
       <c r="E58" s="67">
         <f>10.3</f>
         <v>10.3</v>
@@ -4671,7 +4695,7 @@
       <c r="C59" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="89" t="s">
+      <c r="D59" s="96" t="s">
         <v>35</v>
       </c>
       <c r="E59" s="67">
@@ -4702,7 +4726,7 @@
       <c r="C60" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="90"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="67">
         <v>1.54</v>
       </c>
@@ -4731,7 +4755,7 @@
       <c r="C61" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="102" t="s">
+      <c r="D61" s="81" t="s">
         <v>61</v>
       </c>
       <c r="E61" s="68">
@@ -4762,7 +4786,7 @@
       <c r="C62" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="102"/>
+      <c r="D62" s="81"/>
       <c r="E62" s="67">
         <f>17.52+7.92+16.68+10.52</f>
         <v>52.64</v>
@@ -4791,7 +4815,7 @@
       <c r="C63" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="102"/>
+      <c r="D63" s="81"/>
       <c r="E63" s="67">
         <f>6.68</f>
         <v>6.68</v>
@@ -4823,7 +4847,7 @@
       <c r="C64" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="89" t="s">
+      <c r="D64" s="96" t="s">
         <v>81</v>
       </c>
       <c r="E64" s="49">
@@ -4832,19 +4856,19 @@
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="57"/>
-      <c r="H64" s="86" t="s">
+      <c r="H64" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="86"/>
+      <c r="I64" s="87"/>
       <c r="J64" s="18" t="s">
         <v>66</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="82" t="s">
+      <c r="M64" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="N64" s="83"/>
+      <c r="N64" s="80"/>
       <c r="O64" s="24">
         <f>SUM(O58:O63)</f>
         <v>246.5</v>
@@ -4857,7 +4881,7 @@
       <c r="C65" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="94"/>
+      <c r="D65" s="97"/>
       <c r="E65" s="49">
         <f>7.5+6.42</f>
         <v>13.92</v>
@@ -4870,7 +4894,7 @@
       <c r="I65" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J65" s="81" t="s">
+      <c r="J65" s="86" t="s">
         <v>0</v>
       </c>
       <c r="K65" s="12"/>
@@ -4886,7 +4910,7 @@
       <c r="C66" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="90"/>
+      <c r="D66" s="98"/>
       <c r="E66" s="49">
         <f>2.28+5.9</f>
         <v>8.18</v>
@@ -4895,7 +4919,7 @@
       <c r="G66" s="12"/>
       <c r="H66" s="85"/>
       <c r="I66" s="85"/>
-      <c r="J66" s="81"/>
+      <c r="J66" s="86"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12" t="s">
@@ -4911,7 +4935,7 @@
       <c r="C67" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="89" t="s">
+      <c r="D67" s="96" t="s">
         <v>83</v>
       </c>
       <c r="E67" s="49">
@@ -4932,10 +4956,10 @@
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="86" t="s">
+      <c r="M67" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N67" s="86"/>
+      <c r="N67" s="87"/>
       <c r="O67" s="18" t="s">
         <v>35</v>
       </c>
@@ -4947,7 +4971,7 @@
       <c r="C68" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="94"/>
+      <c r="D68" s="97"/>
       <c r="E68" s="49">
         <f>3.64+4.08</f>
         <v>7.7200000000000006</v>
@@ -4972,7 +4996,7 @@
       <c r="N68" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="81" t="s">
+      <c r="O68" s="86" t="s">
         <v>0</v>
       </c>
       <c r="P68" s="12"/>
@@ -4983,7 +5007,7 @@
       <c r="C69" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="90"/>
+      <c r="D69" s="98"/>
       <c r="E69" s="49">
         <f>5.36</f>
         <v>5.36</v>
@@ -5004,7 +5028,7 @@
       <c r="L69" s="12"/>
       <c r="M69" s="85"/>
       <c r="N69" s="85"/>
-      <c r="O69" s="81"/>
+      <c r="O69" s="86"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="17"/>
     </row>
@@ -5049,10 +5073,10 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="16"/>
-      <c r="C71" s="82" t="s">
+      <c r="C71" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="83"/>
+      <c r="D71" s="80"/>
       <c r="E71" s="28">
         <f>SUM(E45:E63)</f>
         <v>932.65999999999985</v>
@@ -5122,10 +5146,10 @@
       <c r="E73" s="39"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="82" t="s">
+      <c r="H73" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="83"/>
+      <c r="I73" s="80"/>
       <c r="J73" s="24">
         <f>SUM(J67:J72)</f>
         <v>103.64</v>
@@ -5153,10 +5177,10 @@
       <c r="J74" s="11"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="82" t="s">
+      <c r="M74" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="N74" s="83"/>
+      <c r="N74" s="80"/>
       <c r="O74" s="28">
         <f>SUM(O70:O73)</f>
         <v>7.82</v>
@@ -5198,10 +5222,10 @@
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="16"/>
-      <c r="C77" s="86" t="s">
+      <c r="C77" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="86"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="18" t="s">
         <v>25</v>
       </c>
@@ -5228,15 +5252,15 @@
       <c r="D78" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="81" t="s">
+      <c r="E78" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="53"/>
-      <c r="H78" s="86" t="s">
+      <c r="H78" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="I78" s="86"/>
+      <c r="I78" s="87"/>
       <c r="J78" s="18" t="s">
         <v>81</v>
       </c>
@@ -5252,7 +5276,7 @@
       <c r="B79" s="16"/>
       <c r="C79" s="85"/>
       <c r="D79" s="85"/>
-      <c r="E79" s="81"/>
+      <c r="E79" s="86"/>
       <c r="F79" s="2"/>
       <c r="G79" s="53"/>
       <c r="H79" s="84" t="s">
@@ -5261,7 +5285,7 @@
       <c r="I79" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J79" s="81" t="s">
+      <c r="J79" s="86" t="s">
         <v>0</v>
       </c>
       <c r="K79" s="12"/>
@@ -5288,7 +5312,7 @@
       <c r="G80" s="53"/>
       <c r="H80" s="85"/>
       <c r="I80" s="85"/>
-      <c r="J80" s="81"/>
+      <c r="J80" s="86"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
@@ -5406,10 +5430,10 @@
         <v>0.3</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="H85" s="82" t="s">
+      <c r="H85" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="83"/>
+      <c r="I85" s="80"/>
       <c r="J85" s="28">
         <f>SUM(J81:J84)</f>
         <v>0</v>
@@ -5428,10 +5452,10 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C87" s="82" t="s">
+      <c r="C87" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="83"/>
+      <c r="D87" s="80"/>
       <c r="E87" s="24">
         <f>SUM(E80:E86)</f>
         <v>328.52</v>
@@ -5449,44 +5473,11 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="H85:I85"/>
     <mergeCell ref="D45:D50"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="D67:D69"/>
@@ -5503,11 +5494,44 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E78:E79"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5517,10 +5541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S93"/>
+  <dimension ref="A2:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5549,7 +5573,7 @@
       </c>
       <c r="D2" s="60">
         <f>E23 + J18</f>
-        <v>0</v>
+        <v>182.96</v>
       </c>
       <c r="E2" s="59" t="s">
         <v>76</v>
@@ -5572,7 +5596,7 @@
       </c>
       <c r="J3" s="6">
         <f>J54</f>
-        <v>0</v>
+        <v>313.49999999999994</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -5584,8 +5608,8 @@
         <v>48</v>
       </c>
       <c r="J4" s="9">
-        <f>O64</f>
-        <v>0</v>
+        <f>O65</f>
+        <v>484.30000000000007</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -5597,7 +5621,7 @@
         <v>35</v>
       </c>
       <c r="J5" s="9">
-        <f>O74</f>
+        <f>O75</f>
         <v>0</v>
       </c>
     </row>
@@ -5610,8 +5634,8 @@
         <v>25</v>
       </c>
       <c r="J6" s="9">
-        <f>E90</f>
-        <v>0</v>
+        <f>E93</f>
+        <v>494.15999999999997</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -5622,8 +5646,8 @@
         <v>61</v>
       </c>
       <c r="J7" s="62">
-        <f>J73</f>
-        <v>0</v>
+        <f>J74</f>
+        <v>176.57</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -5635,7 +5659,7 @@
       </c>
       <c r="J8" s="63">
         <f>SUM(J3:J7)</f>
-        <v>0</v>
+        <v>1468.53</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5672,18 +5696,18 @@
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
       <c r="K12" s="12"/>
       <c r="L12" s="17"/>
       <c r="M12" s="12"/>
@@ -5696,14 +5720,14 @@
     </row>
     <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
       <c r="K13" s="12"/>
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
@@ -5716,19 +5740,19 @@
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="96"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="96" t="s">
+      <c r="H14" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="96"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="18" t="s">
         <v>10</v>
       </c>
@@ -5750,7 +5774,7 @@
       <c r="D15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
@@ -5761,10 +5785,10 @@
       <c r="I15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="99" t="s">
+      <c r="J15" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="95" t="s">
+      <c r="K15" s="88" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="17"/>
@@ -5780,13 +5804,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
-      <c r="E16" s="81"/>
+      <c r="E16" s="86"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="85"/>
       <c r="I16" s="85"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="95"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="88"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5804,7 +5828,9 @@
         <v>13</v>
       </c>
       <c r="I17" s="20"/>
-      <c r="J17" s="22"/>
+      <c r="J17" s="22">
+        <v>141</v>
+      </c>
       <c r="K17" s="12"/>
       <c r="L17" s="17"/>
     </row>
@@ -5816,16 +5842,19 @@
       <c r="D18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="22">
+        <f>3.44+0.36</f>
+        <v>3.8</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="82" t="s">
+      <c r="H18" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="83"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="28">
         <f>SUM(J17)</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="17"/>
@@ -5838,7 +5867,10 @@
       <c r="D19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="22">
+        <f>2.58</f>
+        <v>2.58</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="9"/>
@@ -5855,7 +5887,10 @@
       <c r="D20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="19">
+        <f>0.74+0.28</f>
+        <v>1.02</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="9"/>
@@ -5872,7 +5907,10 @@
       <c r="D21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="19">
+        <f>6.2+4.48+8.86+2.06+1.24+4.3</f>
+        <v>27.139999999999997</v>
+      </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="9"/>
@@ -5884,8 +5922,12 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19"/>
+      <c r="D22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="19">
+        <v>7.42</v>
+      </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="9"/>
@@ -5896,13 +5938,13 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="28">
         <f>SUM(E17:E22)</f>
-        <v>0</v>
+        <v>41.96</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -6057,8 +6099,8 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="33"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
@@ -6110,8 +6152,8 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
       <c r="E37" s="39"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -6168,15 +6210,15 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="30"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
       <c r="J40" s="39"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -6189,9 +6231,9 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="30"/>
       <c r="G41" s="12"/>
       <c r="H41" s="30" t="s">
@@ -6210,19 +6252,19 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="96"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="86" t="s">
+      <c r="H42" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="86"/>
+      <c r="I42" s="87"/>
       <c r="J42" s="18" t="s">
         <v>26</v>
       </c>
@@ -6243,7 +6285,7 @@
       <c r="D43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
@@ -6254,7 +6296,7 @@
       <c r="I43" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J43" s="81" t="s">
+      <c r="J43" s="86" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="12"/>
@@ -6270,12 +6312,12 @@
       <c r="B44" s="16"/>
       <c r="C44" s="85"/>
       <c r="D44" s="85"/>
-      <c r="E44" s="81"/>
+      <c r="E44" s="86"/>
       <c r="F44" s="30"/>
       <c r="G44" s="12"/>
       <c r="H44" s="85"/>
       <c r="I44" s="85"/>
-      <c r="J44" s="81"/>
+      <c r="J44" s="86"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="34"/>
@@ -6290,10 +6332,13 @@
       <c r="C45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="89" t="s">
+      <c r="D45" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="49"/>
+      <c r="E45" s="67">
+        <f>17.04 + 3.44 + 5.3 + 9.52 + 4.7 + 16.6 + 30.46 + 9.26 + 16.84 + 6.76 + 13.36 + 2.84 + 4.02 + 12.5</f>
+        <v>152.64000000000004</v>
+      </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="76" t="s">
@@ -6302,7 +6347,10 @@
       <c r="I45" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="49"/>
+      <c r="J45" s="49">
+        <f>87.37 + 19.25</f>
+        <v>106.62</v>
+      </c>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="34"/>
@@ -6317,15 +6365,23 @@
       <c r="C46" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="94"/>
-      <c r="E46" s="49"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="67">
+        <f>1.72 + 3.6 + 5.94 + 5.14 + 7.54 + 8.78 + 5.74 + 2.54 + 5.22 + 10.5 + 5.7 + 6.7 + 8.5 + 2</f>
+        <v>79.62</v>
+      </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="76"/>
-      <c r="J46" s="29"/>
+      <c r="I46" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="J46" s="29">
+        <f>5.25 + 15.18 + 6.4</f>
+        <v>26.83</v>
+      </c>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="10"/>
@@ -6339,15 +6395,23 @@
       <c r="C47" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="94"/>
-      <c r="E47" s="29"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="68">
+        <f>19.4 + 1.65 + 5.35 + 13.9 + 5.42 + 1.76 + 14.6 + 8.6 + 4.4 + 2.24 + 3.92</f>
+        <v>81.239999999999995</v>
+      </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="29"/>
+      <c r="I47" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" s="29">
+        <f>5.25 + 15.18 + 6.4</f>
+        <v>26.83</v>
+      </c>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="50"/>
@@ -6361,7 +6425,7 @@
       <c r="C48" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="94"/>
+      <c r="D48" s="97"/>
       <c r="E48" s="29"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -6371,7 +6435,10 @@
       <c r="I48" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J48" s="29"/>
+      <c r="J48" s="29">
+        <f>4.78 + 30.01 + 13.92</f>
+        <v>48.71</v>
+      </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
@@ -6385,8 +6452,11 @@
       <c r="C49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="94"/>
-      <c r="E49" s="29"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="29">
+        <f>4.1 + 7.34 + 12.26 + 12 + 13.2 + 5.22</f>
+        <v>54.120000000000005</v>
+      </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="29" t="s">
@@ -6395,7 +6465,9 @@
       <c r="I49" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J49" s="29"/>
+      <c r="J49" s="29">
+        <v>2.83</v>
+      </c>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
@@ -6406,11 +6478,14 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="16"/>
-      <c r="C50" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="90"/>
-      <c r="E50" s="29"/>
+      <c r="C50" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="97"/>
+      <c r="E50" s="29">
+        <f>7.62 + 9.5 + 2.9 + 3.7</f>
+        <v>23.72</v>
+      </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="77" t="s">
@@ -6419,7 +6494,10 @@
       <c r="I50" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="29"/>
+      <c r="J50" s="29">
+        <f>22.78 + 27.81</f>
+        <v>50.59</v>
+      </c>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
@@ -6430,16 +6508,11 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="16"/>
-      <c r="C51" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="29">
-        <f>9.6 + 24 + 17.9 + 12.92 + 24.25 + 9.8 + 5.8 + 10 + 18.6</f>
-        <v>132.87</v>
-      </c>
+      <c r="C51" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="98"/>
+      <c r="E51" s="29"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="29" t="s">
@@ -6448,7 +6521,10 @@
       <c r="I51" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J51" s="29"/>
+      <c r="J51" s="29">
+        <f>3.9</f>
+        <v>3.9</v>
+      </c>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
@@ -6459,13 +6535,15 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="16"/>
-      <c r="C52" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="29">
-        <f>10.96 + 2.58 + 5.72 + 11.8</f>
-        <v>31.060000000000002</v>
+      <c r="C52" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="68">
+        <f>9.6 + 24 + 17.9 + 12.92 + 24.25 + 9.8 + 5.8 + 10 + 18.6 + 19.6 + 13.1 + 12.56 + 6.02 + 30 + 6.02 + 4.02 + 13.6 + 7.16 + 13.8 + 14.66 + 7.36</f>
+        <v>280.77000000000004</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -6475,7 +6553,10 @@
       <c r="I52" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="29"/>
+      <c r="J52" s="29">
+        <f>9.18 + 26.71</f>
+        <v>35.89</v>
+      </c>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
@@ -6487,12 +6568,12 @@
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="16"/>
       <c r="C53" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="92"/>
-      <c r="E53" s="29">
-        <f>24.48 + 13.06 + 18.34 + 9.8 + 3.9</f>
-        <v>69.58</v>
+        <v>58</v>
+      </c>
+      <c r="D53" s="94"/>
+      <c r="E53" s="68">
+        <f>10.96 + 2.58 + 5.72 + 11.8 + 7.6 + 8.2 + 14.15</f>
+        <v>61.01</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
@@ -6500,7 +6581,9 @@
         <v>14</v>
       </c>
       <c r="I53" s="51"/>
-      <c r="J53" s="19"/>
+      <c r="J53" s="19">
+        <v>11.3</v>
+      </c>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
@@ -6512,19 +6595,22 @@
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="16"/>
       <c r="C54" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="92"/>
-      <c r="E54" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="D54" s="94"/>
+      <c r="E54" s="68">
+        <f>24.48 + 13.06 + 18.34 + 9.8 + 3.9 + 3.24 + 9.76 + 13.8 + 2.7 + 5.84 + 6.46 + 20.64</f>
+        <v>132.01999999999998</v>
+      </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="82" t="s">
+      <c r="H54" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="83"/>
+      <c r="I54" s="80"/>
       <c r="J54" s="24">
         <f>SUM(J45:J53)</f>
-        <v>0</v>
+        <v>313.49999999999994</v>
       </c>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
@@ -6532,20 +6618,19 @@
         <v>53</v>
       </c>
       <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
+      <c r="O54" s="12">
+        <v>20240402003</v>
+      </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="17"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="16"/>
       <c r="C55" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="93"/>
-      <c r="E55" s="29">
-        <f>9.36</f>
-        <v>9.36</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D55" s="94"/>
+      <c r="E55" s="29"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -6553,10 +6638,10 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="86" t="s">
+      <c r="M55" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N55" s="86"/>
+      <c r="N55" s="87"/>
       <c r="O55" s="18" t="s">
         <v>48</v>
       </c>
@@ -6565,15 +6650,13 @@
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="16"/>
-      <c r="C56" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="29">
-        <f>4.62 + 5.38 + 6.76 + 13.4 + 16.16 + 16.75 + 11.25 + 13.85 + 16.8 + 17.4 + 21.54 + 10.12 + 4.3 + 10.44 + 14.96 + 23.6 + 13.68 + 21.9 + 7.26 + 9.54 + 21 + 3.9 + 13.3 + 7.04 + 6.22</f>
-        <v>311.17</v>
+      <c r="C56" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="95"/>
+      <c r="E56" s="68">
+        <f>9.36 + 4.9 + 6.1</f>
+        <v>20.36</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -6582,13 +6665,13 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="87" t="s">
+      <c r="M56" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="87" t="s">
+      <c r="N56" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="79" t="s">
+      <c r="O56" s="99" t="s">
         <v>0</v>
       </c>
       <c r="P56" s="12"/>
@@ -6597,12 +6680,14 @@
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="16"/>
       <c r="C57" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="94"/>
-      <c r="E57" s="29">
-        <f>8.76 + 3.34 + 6.6 + 9.82 + 2.16 + 9.44 + 5.56 + 8.96 + 9.8</f>
-        <v>64.44</v>
+        <v>16</v>
+      </c>
+      <c r="D57" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="68">
+        <f>4.62 + 5.38 + 6.76 + 13.4 + 16.16 + 16.75 + 11.25 + 13.85 + 16.8 + 17.4 + 21.54 + 10.12 + 4.3 + 10.44 + 14.96 + 23.6 + 13.68 + 21.9 + 7.26 + 9.54 + 21 + 3.9 + 13.3 + 7.04 + 6.22</f>
+        <v>311.17</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -6611,21 +6696,21 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="80"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="100"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="17"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="16"/>
       <c r="C58" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="94"/>
-      <c r="E58" s="49">
-        <f>15.28+4.56 + 11.92 + 3.14 + 5.54 + 6.82</f>
-        <v>47.26</v>
+        <v>58</v>
+      </c>
+      <c r="D58" s="97"/>
+      <c r="E58" s="68">
+        <f>8.76 + 3.34 + 6.6 + 9.82 + 2.16 + 9.44 + 5.56 + 8.96 + 9.8 + 12 + 10</f>
+        <v>86.44</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -6640,17 +6725,23 @@
       <c r="N58" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O58" s="22"/>
+      <c r="O58" s="22">
+        <f>120.4 + 40.2</f>
+        <v>160.60000000000002</v>
+      </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="17"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="16"/>
       <c r="C59" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="94"/>
-      <c r="E59" s="49"/>
+        <v>15</v>
+      </c>
+      <c r="D59" s="97"/>
+      <c r="E59" s="67">
+        <f>15.28+4.56 + 11.92 + 3.14 + 5.54 + 6.82+5.02</f>
+        <v>52.28</v>
+      </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -6664,20 +6755,20 @@
       <c r="N59" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O59" s="19"/>
+      <c r="O59" s="19">
+        <f>44.23 + 44.24 +15.67 + 8.46</f>
+        <v>112.6</v>
+      </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="17"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
       <c r="C60" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="90"/>
-      <c r="E60" s="49">
-        <f>4.3</f>
-        <v>4.3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D60" s="97"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -6691,19 +6782,23 @@
       <c r="N60" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="O60" s="19"/>
+      <c r="O60" s="19">
+        <f>4.28 + 2 + 0.82 + 0.29</f>
+        <v>7.3900000000000006</v>
+      </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="17"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="16"/>
       <c r="C61" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="49"/>
+        <v>22</v>
+      </c>
+      <c r="D61" s="98"/>
+      <c r="E61" s="67">
+        <f>16.75 + 11.6 + 6.06</f>
+        <v>34.410000000000004</v>
+      </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -6717,17 +6812,25 @@
       <c r="N61" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O61" s="19"/>
+      <c r="O61" s="19">
+        <f>24.52 + 2.82</f>
+        <v>27.34</v>
+      </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="17"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="16"/>
       <c r="C62" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="90"/>
-      <c r="E62" s="49"/>
+        <v>16</v>
+      </c>
+      <c r="D62" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="49">
+        <f>3.44 + 10.4 + 3.5 + 22.7</f>
+        <v>40.04</v>
+      </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -6741,19 +6844,23 @@
       <c r="N62" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O62" s="19"/>
+      <c r="O62" s="19">
+        <f>10.35 + 1.88</f>
+        <v>12.23</v>
+      </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="17"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="16"/>
-      <c r="C63" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="29"/>
+      <c r="C63" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="98"/>
+      <c r="E63" s="49">
+        <f>2.72 + 7</f>
+        <v>9.7200000000000006</v>
+      </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12" t="s">
@@ -6763,52 +6870,64 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
-      <c r="M63" s="20" t="s">
-        <v>21</v>
+      <c r="M63" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="N63" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O63" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="O63" s="19">
+        <v>1</v>
+      </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="17"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="16"/>
-      <c r="C64" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="102"/>
-      <c r="E64" s="49"/>
+      <c r="C64" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="68">
+        <f>19.26 + 5.2 + 4 + 20.88 + 3.58 + 7.72 + 15.16 + 8 + 7.8 + 4.66 + 15.4</f>
+        <v>111.66</v>
+      </c>
       <c r="F64" s="12"/>
       <c r="G64" s="57"/>
-      <c r="H64" s="86" t="s">
+      <c r="H64" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="86"/>
+      <c r="I64" s="87"/>
       <c r="J64" s="18" t="s">
         <v>66</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="N64" s="83"/>
-      <c r="O64" s="24">
-        <f>SUM(O58:O63)</f>
-        <v>0</v>
+      <c r="M64" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O64" s="19">
+        <f>106.39 + 35.79 + 20.96</f>
+        <v>163.14000000000001</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="17"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="16"/>
-      <c r="C65" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="102"/>
-      <c r="E65" s="49"/>
+      <c r="C65" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="97"/>
+      <c r="E65" s="67">
+        <f>3.6 + 4.15 + 15.1 + 7.06 + 8.3 + 6</f>
+        <v>44.21</v>
+      </c>
       <c r="F65" s="12"/>
       <c r="G65" s="57"/>
       <c r="H65" s="84" t="s">
@@ -6817,39 +6936,40 @@
       <c r="I65" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J65" s="81" t="s">
+      <c r="J65" s="86" t="s">
         <v>0</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
+      <c r="M65" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="N65" s="80"/>
+      <c r="O65" s="24">
+        <f>SUM(O58:O64)</f>
+        <v>484.30000000000007</v>
+      </c>
       <c r="P65" s="12"/>
       <c r="Q65" s="17"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="16"/>
       <c r="C66" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="49">
-        <f>3</f>
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="D66" s="97"/>
+      <c r="E66" s="67">
+        <f>5 + 1.1</f>
+        <v>6.1</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="85"/>
       <c r="I66" s="85"/>
-      <c r="J66" s="81"/>
+      <c r="J66" s="86"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
-      <c r="M66" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="M66" s="12"/>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
@@ -6858,12 +6978,12 @@
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="16"/>
       <c r="C67" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="94"/>
-      <c r="E67" s="49">
-        <f>6.7 + 4.36 + 7.9</f>
-        <v>18.96</v>
+        <v>99</v>
+      </c>
+      <c r="D67" s="98"/>
+      <c r="E67" s="67">
+        <f>14.6</f>
+        <v>14.6</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -6873,28 +6993,30 @@
       <c r="I67" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="J67" s="49"/>
+      <c r="J67" s="49">
+        <v>43.78</v>
+      </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="N67" s="86"/>
-      <c r="O67" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="M67" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
       <c r="P67" s="12"/>
       <c r="Q67" s="17"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="16"/>
-      <c r="C68" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="94"/>
+      <c r="C68" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="96" t="s">
+        <v>81</v>
+      </c>
       <c r="E68" s="49">
-        <f>9.4 + 5.15</f>
-        <v>14.55</v>
+        <f>3 + 23.18 + 3.96 + 3.32 + 12.7 + 8.18 + 14.7 + 5.6 + 6.4 + 7.82</f>
+        <v>88.859999999999985</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
@@ -6904,28 +7026,32 @@
       <c r="I68" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J68" s="29"/>
+      <c r="J68" s="29">
+        <f>14.3 + 15.57 + 6.1 + 1.67</f>
+        <v>37.64</v>
+      </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="N68" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="O68" s="81" t="s">
-        <v>0</v>
+      <c r="M68" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="N68" s="87"/>
+      <c r="O68" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="17"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="16"/>
-      <c r="C69" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="90"/>
-      <c r="E69" s="49"/>
+      <c r="C69" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="97"/>
+      <c r="E69" s="49">
+        <f>6.7 + 4.36 + 7.9 + 7.48</f>
+        <v>26.44</v>
+      </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="29" t="s">
@@ -6934,12 +7060,21 @@
       <c r="I69" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J69" s="29"/>
+      <c r="J69" s="29">
+        <f>0.74 + 0.91 + 0.1</f>
+        <v>1.75</v>
+      </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="85"/>
-      <c r="O69" s="81"/>
+      <c r="M69" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="N69" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="O69" s="86" t="s">
+        <v>0</v>
+      </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="17"/>
     </row>
@@ -6948,10 +7083,11 @@
       <c r="C70" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="E70" s="49"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="49">
+        <f>9.4 + 5.15 + 5.86 + 3.32 + 15.8 + 6.22 + 8.68</f>
+        <v>54.43</v>
+      </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="77" t="s">
@@ -6960,16 +7096,15 @@
       <c r="I70" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="J70" s="29"/>
+      <c r="J70" s="29">
+        <f>4.82 + 0.65</f>
+        <v>5.4700000000000006</v>
+      </c>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
-      <c r="M70" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="N70" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O70" s="22"/>
+      <c r="M70" s="85"/>
+      <c r="N70" s="85"/>
+      <c r="O70" s="86"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="17"/>
     </row>
@@ -6978,7 +7113,7 @@
       <c r="C71" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="94"/>
+      <c r="D71" s="98"/>
       <c r="E71" s="49"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -6988,42 +7123,52 @@
       <c r="I71" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="29"/>
+      <c r="J71" s="29">
+        <f>2.88 + 0.43</f>
+        <v>3.31</v>
+      </c>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
-      <c r="M71" s="23" t="s">
-        <v>86</v>
+      <c r="M71" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="N71" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O71" s="19"/>
+      <c r="O71" s="22"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="17"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="16"/>
       <c r="C72" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="90"/>
-      <c r="E72" s="49"/>
+        <v>16</v>
+      </c>
+      <c r="D72" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="49">
+        <f>7.62 + 5.88</f>
+        <v>13.5</v>
+      </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="23" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J72" s="19"/>
+        <v>102</v>
+      </c>
+      <c r="J72" s="29">
+        <v>0.3</v>
+      </c>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N72" s="20" t="s">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="N72" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="O72" s="19"/>
       <c r="P72" s="12"/>
@@ -7032,29 +7177,32 @@
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="16"/>
       <c r="C73" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" s="49"/>
+        <v>15</v>
+      </c>
+      <c r="D73" s="97"/>
+      <c r="E73" s="49">
+        <f>16.48 + 7.1</f>
+        <v>23.58</v>
+      </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="83"/>
-      <c r="J73" s="24">
-        <f>SUM(J67:J72)</f>
-        <v>0</v>
+      <c r="H73" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J73" s="19">
+        <f>45.14 + 27.72 + 11.46</f>
+        <v>84.32</v>
       </c>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
-      <c r="M73" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N73" s="19" t="s">
-        <v>5</v>
+      <c r="M73" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="O73" s="19"/>
       <c r="P73" s="12"/>
@@ -7062,57 +7210,81 @@
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="16"/>
-      <c r="C74" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="83"/>
-      <c r="E74" s="28">
-        <f>SUM(E45:E65)</f>
-        <v>670.04</v>
+      <c r="C74" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="97"/>
+      <c r="E74" s="49">
+        <f>4.74</f>
+        <v>4.74</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="11"/>
+      <c r="H74" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="80"/>
+      <c r="J74" s="24">
+        <f>SUM(J67:J73)</f>
+        <v>176.57</v>
+      </c>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="N74" s="83"/>
-      <c r="O74" s="28">
-        <f>SUM(O70:O73)</f>
-        <v>0</v>
-      </c>
+      <c r="M74" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O74" s="19"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="17"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="16"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="39"/>
+      <c r="C75" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="98"/>
+      <c r="E75" s="49">
+        <f>4.1</f>
+        <v>4.0999999999999996</v>
+      </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="10"/>
       <c r="J75" s="11"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
+      <c r="M75" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="N75" s="80"/>
+      <c r="O75" s="28">
+        <f>SUM(O71:O74)</f>
+        <v>0</v>
+      </c>
       <c r="P75" s="12"/>
       <c r="Q75" s="17"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="16"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="39"/>
+      <c r="C76" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="49">
+        <f>2.14 + 3.14 + 10.84 + 6.04 + 3.14</f>
+        <v>25.3</v>
+      </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="11"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
@@ -7123,13 +7295,16 @@
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="16"/>
+      <c r="C77" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="80"/>
+      <c r="E77" s="28">
+        <f>SUM(E45:E66)</f>
+        <v>1581.5300000000002</v>
+      </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
@@ -7140,15 +7315,16 @@
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="16"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="2"/>
       <c r="G78" s="53"/>
-      <c r="H78" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="I78" s="86"/>
-      <c r="J78" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="H78" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
@@ -7159,21 +7335,17 @@
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="16"/>
-      <c r="C79" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="39"/>
       <c r="F79" s="2"/>
       <c r="G79" s="53"/>
-      <c r="H79" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="J79" s="81" t="s">
-        <v>0</v>
+      <c r="H79" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="87"/>
+      <c r="J79" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
@@ -7185,18 +7357,17 @@
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="16"/>
-      <c r="C80" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="86"/>
-      <c r="E80" s="18" t="s">
-        <v>25</v>
-      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="53"/>
-      <c r="H80" s="85"/>
-      <c r="I80" s="85"/>
-      <c r="J80" s="81"/>
+      <c r="H80" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" s="86" t="s">
+        <v>0</v>
+      </c>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
@@ -7207,24 +7378,11 @@
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="16"/>
-      <c r="C81" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="81" t="s">
-        <v>0</v>
-      </c>
       <c r="F81" s="55"/>
       <c r="G81" s="53"/>
-      <c r="H81" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I81" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="J81" s="22"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="86"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
@@ -7233,18 +7391,22 @@
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="12"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="81"/>
+      <c r="C82" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12">
+        <v>20240402002</v>
+      </c>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
-      <c r="H82" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J82" s="19"/>
+      <c r="H82" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J82" s="22"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
@@ -7255,116 +7417,218 @@
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="12"/>
-      <c r="C83" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E83" s="49"/>
+      <c r="C83" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="87"/>
+      <c r="E83" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="F83" s="12"/>
-      <c r="H83" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I83" s="23" t="s">
-        <v>93</v>
+      <c r="H83" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="J83" s="19"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="12"/>
-      <c r="C84" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" s="29"/>
+      <c r="C84" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="86" t="s">
+        <v>0</v>
+      </c>
       <c r="F84" s="12"/>
       <c r="H84" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J84" s="19"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="12"/>
+      <c r="H85" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I84" s="19" t="s">
+      <c r="I85" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="J84" s="19"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C85" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="12"/>
-      <c r="H85" s="82" t="s">
+      <c r="J85" s="19"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C86" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="67">
+        <f>98.7+20</f>
+        <v>118.7</v>
+      </c>
+      <c r="H86" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="83"/>
-      <c r="J85" s="28">
-        <f>SUM(J81:J84)</f>
+      <c r="I86" s="80"/>
+      <c r="J86" s="28">
+        <f>SUM(J82:J85)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C86" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="D86" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" s="29"/>
-    </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C87" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="D87" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="E87" s="29"/>
+      <c r="C87" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="29">
+        <f>41.91 + 42.07 + 40.01 + 3</f>
+        <v>126.98999999999998</v>
+      </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C88" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="29">
+        <f>5.3 + 2.6 + 1 + 0.17</f>
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C89" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" s="29">
+        <f>20.27 + 1.36</f>
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C90" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" s="29">
+        <f>10.84+0.9</f>
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C91" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="E88" s="29"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C89" s="20" t="s">
+      <c r="D91" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" s="29">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C92" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D92" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="19"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C90" s="82" t="s">
+      <c r="E92" s="19">
+        <f>190.21+14.93</f>
+        <v>205.14000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C93" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="83"/>
-      <c r="E90" s="24">
-        <f>SUM(E83:E89)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-    </row>
-    <row r="93" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="24">
+        <f>SUM(E86:E92)</f>
+        <v>494.15999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="96" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C40:E41"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="C12:E13"/>
@@ -7377,53 +7641,6 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="D70:D72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
